--- a/raw_data/20200818_saline/20200818_Sensor3_Test_41.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_41.xlsx
@@ -1,2487 +1,2903 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B38553-6C51-4835-A738-A7EA65341A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>36556.750696</v>
+        <v>36556.750696000003</v>
       </c>
       <c r="B2" s="1">
         <v>10.154653</v>
       </c>
       <c r="C2" s="1">
-        <v>1154.900000</v>
+        <v>1154.9000000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>-259.327000</v>
+        <v>-259.327</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>36566.830923</v>
+        <v>36566.830923000001</v>
       </c>
       <c r="G2" s="1">
         <v>10.157453</v>
       </c>
       <c r="H2" s="1">
-        <v>1176.420000</v>
+        <v>1176.42</v>
       </c>
       <c r="I2" s="1">
-        <v>-217.376000</v>
+        <v>-217.376</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>36577.582213</v>
+        <v>36577.582213000002</v>
       </c>
       <c r="L2" s="1">
-        <v>10.160440</v>
+        <v>10.160439999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>1203.410000</v>
+        <v>1203.4100000000001</v>
       </c>
       <c r="N2" s="1">
-        <v>-151.405000</v>
+        <v>-151.405</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>36587.773969</v>
+        <v>36587.773969000002</v>
       </c>
       <c r="Q2" s="1">
         <v>10.163271</v>
       </c>
       <c r="R2" s="1">
-        <v>1211.050000</v>
+        <v>1211.05</v>
       </c>
       <c r="S2" s="1">
-        <v>-129.210000</v>
+        <v>-129.21</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>36597.779267</v>
+        <v>36597.779266999998</v>
       </c>
       <c r="V2" s="1">
-        <v>10.166050</v>
+        <v>10.16605</v>
       </c>
       <c r="W2" s="1">
-        <v>1218.300000</v>
+        <v>1218.3</v>
       </c>
       <c r="X2" s="1">
-        <v>-108.011000</v>
+        <v>-108.011</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>36607.924437</v>
+        <v>36607.924437000001</v>
       </c>
       <c r="AA2" s="1">
         <v>10.168868</v>
       </c>
       <c r="AB2" s="1">
-        <v>1225.980000</v>
+        <v>1225.98</v>
       </c>
       <c r="AC2" s="1">
-        <v>-91.182200</v>
+        <v>-91.182199999999995</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>36618.137064</v>
+        <v>36618.137064000002</v>
       </c>
       <c r="AF2" s="1">
-        <v>10.171705</v>
+        <v>10.171704999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>1230.580000</v>
+        <v>1230.58</v>
       </c>
       <c r="AH2" s="1">
-        <v>-86.561600</v>
+        <v>-86.561599999999999</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>36628.216763</v>
+        <v>36628.216762999997</v>
       </c>
       <c r="AK2" s="1">
         <v>10.174505</v>
       </c>
       <c r="AL2" s="1">
-        <v>1237.620000</v>
+        <v>1237.6199999999999</v>
       </c>
       <c r="AM2" s="1">
-        <v>-89.802700</v>
+        <v>-89.802700000000002</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>36638.473533</v>
+        <v>36638.473532999997</v>
       </c>
       <c r="AP2" s="1">
-        <v>10.177354</v>
+        <v>10.177353999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1245.410000</v>
+        <v>1245.4100000000001</v>
       </c>
       <c r="AR2" s="1">
-        <v>-101.748000</v>
+        <v>-101.748</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>36649.437598</v>
+        <v>36649.437597999997</v>
       </c>
       <c r="AU2" s="1">
         <v>10.180399</v>
       </c>
       <c r="AV2" s="1">
-        <v>1255.230000</v>
+        <v>1255.23</v>
       </c>
       <c r="AW2" s="1">
-        <v>-121.210000</v>
+        <v>-121.21</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
         <v>36660.569808</v>
       </c>
       <c r="AZ2" s="1">
-        <v>10.183492</v>
+        <v>10.183491999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>1263.560000</v>
+        <v>1263.56</v>
       </c>
       <c r="BB2" s="1">
-        <v>-138.857000</v>
+        <v>-138.857</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>36671.241761</v>
+        <v>36671.241760999997</v>
       </c>
       <c r="BE2" s="1">
         <v>10.186456</v>
       </c>
       <c r="BF2" s="1">
-        <v>1303.220000</v>
+        <v>1303.22</v>
       </c>
       <c r="BG2" s="1">
-        <v>-221.992000</v>
+        <v>-221.99199999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
         <v>36682.233108</v>
       </c>
       <c r="BJ2" s="1">
-        <v>10.189509</v>
+        <v>10.189508999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1372.670000</v>
+        <v>1372.67</v>
       </c>
       <c r="BL2" s="1">
-        <v>-361.040000</v>
+        <v>-361.04</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
         <v>36693.289396</v>
       </c>
       <c r="BO2" s="1">
-        <v>10.192580</v>
+        <v>10.19258</v>
       </c>
       <c r="BP2" s="1">
-        <v>1487.240000</v>
+        <v>1487.24</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-588.065000</v>
+        <v>-588.06500000000005</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>36704.046135</v>
+        <v>36704.046134999997</v>
       </c>
       <c r="BT2" s="1">
         <v>10.195568</v>
       </c>
       <c r="BU2" s="1">
-        <v>1620.010000</v>
+        <v>1620.01</v>
       </c>
       <c r="BV2" s="1">
-        <v>-844.471000</v>
+        <v>-844.471</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>36715.055335</v>
+        <v>36715.055334999997</v>
       </c>
       <c r="BY2" s="1">
-        <v>10.198626</v>
+        <v>10.198626000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1772.840000</v>
+        <v>1772.84</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1125.090000</v>
+        <v>-1125.0899999999999</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>36726.379992</v>
+        <v>36726.379992000002</v>
       </c>
       <c r="CD2" s="1">
         <v>10.201772</v>
       </c>
       <c r="CE2" s="1">
-        <v>2195.740000</v>
+        <v>2195.7399999999998</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1808.780000</v>
+        <v>-1808.78</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>36557.272488</v>
+        <v>36557.272488000002</v>
       </c>
       <c r="B3" s="1">
         <v>10.154798</v>
       </c>
       <c r="C3" s="1">
-        <v>1154.900000</v>
+        <v>1154.9000000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>-259.821000</v>
+        <v>-259.82100000000003</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>36567.493577</v>
+        <v>36567.493577000001</v>
       </c>
       <c r="G3" s="1">
-        <v>10.157637</v>
+        <v>10.157636999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>1176.290000</v>
+        <v>1176.29</v>
       </c>
       <c r="I3" s="1">
-        <v>-217.320000</v>
+        <v>-217.32</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>36577.691294</v>
+        <v>36577.691293999997</v>
       </c>
       <c r="L3" s="1">
-        <v>10.160470</v>
+        <v>10.16047</v>
       </c>
       <c r="M3" s="1">
-        <v>1203.430000</v>
+        <v>1203.43</v>
       </c>
       <c r="N3" s="1">
-        <v>-151.291000</v>
+        <v>-151.291</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>36588.201520</v>
+        <v>36588.201520000002</v>
       </c>
       <c r="Q3" s="1">
         <v>10.163389</v>
       </c>
       <c r="R3" s="1">
-        <v>1210.990000</v>
+        <v>1210.99</v>
       </c>
       <c r="S3" s="1">
-        <v>-129.274000</v>
+        <v>-129.274</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>36598.126465</v>
+        <v>36598.126465000001</v>
       </c>
       <c r="V3" s="1">
-        <v>10.166146</v>
+        <v>10.166145999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>1218.190000</v>
+        <v>1218.19</v>
       </c>
       <c r="X3" s="1">
-        <v>-108.053000</v>
+        <v>-108.053</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>36608.274117</v>
+        <v>36608.274117000001</v>
       </c>
       <c r="AA3" s="1">
         <v>10.168965</v>
       </c>
       <c r="AB3" s="1">
-        <v>1225.800000</v>
+        <v>1225.8</v>
       </c>
       <c r="AC3" s="1">
-        <v>-91.033200</v>
+        <v>-91.033199999999994</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>36618.519834</v>
+        <v>36618.519833999999</v>
       </c>
       <c r="AF3" s="1">
         <v>10.171811</v>
       </c>
       <c r="AG3" s="1">
-        <v>1230.570000</v>
+        <v>1230.57</v>
       </c>
       <c r="AH3" s="1">
-        <v>-86.498500</v>
+        <v>-86.498500000000007</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>36628.634892</v>
+        <v>36628.634892000002</v>
       </c>
       <c r="AK3" s="1">
         <v>10.174621</v>
       </c>
       <c r="AL3" s="1">
-        <v>1237.620000</v>
+        <v>1237.6199999999999</v>
       </c>
       <c r="AM3" s="1">
-        <v>-89.802600</v>
+        <v>-89.802599999999998</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>36638.898109</v>
+        <v>36638.898109000002</v>
       </c>
       <c r="AP3" s="1">
         <v>10.177472</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1245.410000</v>
+        <v>1245.4100000000001</v>
       </c>
       <c r="AR3" s="1">
-        <v>-101.738000</v>
+        <v>-101.738</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>36649.865645</v>
+        <v>36649.865644999998</v>
       </c>
       <c r="AU3" s="1">
-        <v>10.180518</v>
+        <v>10.180517999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>1255.230000</v>
+        <v>1255.23</v>
       </c>
       <c r="AW3" s="1">
-        <v>-121.217000</v>
+        <v>-121.217</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>36661.211663</v>
+        <v>36661.211663000002</v>
       </c>
       <c r="AZ3" s="1">
-        <v>10.183670</v>
+        <v>10.183669999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1263.560000</v>
+        <v>1263.56</v>
       </c>
       <c r="BB3" s="1">
-        <v>-138.888000</v>
+        <v>-138.88800000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>36671.605793</v>
+        <v>36671.605793000002</v>
       </c>
       <c r="BE3" s="1">
-        <v>10.186557</v>
+        <v>10.186557000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1303.250000</v>
+        <v>1303.25</v>
       </c>
       <c r="BG3" s="1">
-        <v>-221.999000</v>
+        <v>-221.999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>36682.613036</v>
+        <v>36682.613036000002</v>
       </c>
       <c r="BJ3" s="1">
         <v>10.189615</v>
       </c>
       <c r="BK3" s="1">
-        <v>1372.670000</v>
+        <v>1372.67</v>
       </c>
       <c r="BL3" s="1">
-        <v>-361.058000</v>
+        <v>-361.05799999999999</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>36693.706531</v>
+        <v>36693.706531000003</v>
       </c>
       <c r="BO3" s="1">
         <v>10.192696</v>
       </c>
       <c r="BP3" s="1">
-        <v>1487.230000</v>
+        <v>1487.23</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-588.052000</v>
+        <v>-588.05200000000002</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>36704.477685</v>
+        <v>36704.477684999998</v>
       </c>
       <c r="BT3" s="1">
-        <v>10.195688</v>
+        <v>10.195688000000001</v>
       </c>
       <c r="BU3" s="1">
-        <v>1620.030000</v>
+        <v>1620.03</v>
       </c>
       <c r="BV3" s="1">
-        <v>-844.573000</v>
+        <v>-844.57299999999998</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>36715.520584</v>
+        <v>36715.520583999998</v>
       </c>
       <c r="BY3" s="1">
-        <v>10.198756</v>
+        <v>10.198755999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1772.830000</v>
+        <v>1772.83</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1125.180000</v>
+        <v>-1125.18</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>36726.936536</v>
+        <v>36726.936536000001</v>
       </c>
       <c r="CD3" s="1">
         <v>10.201927</v>
       </c>
       <c r="CE3" s="1">
-        <v>2196.880000</v>
+        <v>2196.88</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1807.060000</v>
+        <v>-1807.06</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>36557.711448</v>
+        <v>36557.711448000002</v>
       </c>
       <c r="B4" s="1">
-        <v>10.154920</v>
+        <v>10.154920000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>1154.560000</v>
+        <v>1154.56</v>
       </c>
       <c r="D4" s="1">
-        <v>-259.618000</v>
+        <v>-259.61799999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>36567.864058</v>
+        <v>36567.864057999999</v>
       </c>
       <c r="G4" s="1">
-        <v>10.157740</v>
+        <v>10.15774</v>
       </c>
       <c r="H4" s="1">
-        <v>1175.810000</v>
+        <v>1175.81</v>
       </c>
       <c r="I4" s="1">
-        <v>-217.428000</v>
+        <v>-217.428</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>36578.031052</v>
+        <v>36578.031051999998</v>
       </c>
       <c r="L4" s="1">
-        <v>10.160564</v>
+        <v>10.160564000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>1203.150000</v>
+        <v>1203.1500000000001</v>
       </c>
       <c r="N4" s="1">
-        <v>-151.060000</v>
+        <v>-151.06</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>36588.548718</v>
+        <v>36588.548717999998</v>
       </c>
       <c r="Q4" s="1">
-        <v>10.163486</v>
+        <v>10.163486000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>1210.990000</v>
+        <v>1210.99</v>
       </c>
       <c r="S4" s="1">
-        <v>-129.181000</v>
+        <v>-129.18100000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>36598.466753</v>
+        <v>36598.466753000001</v>
       </c>
       <c r="V4" s="1">
-        <v>10.166241</v>
+        <v>10.166240999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>1218.290000</v>
+        <v>1218.29</v>
       </c>
       <c r="X4" s="1">
-        <v>-108.210000</v>
+        <v>-108.21</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>36608.647638</v>
+        <v>36608.647638000002</v>
       </c>
       <c r="AA4" s="1">
         <v>10.169069</v>
       </c>
       <c r="AB4" s="1">
-        <v>1225.820000</v>
+        <v>1225.82</v>
       </c>
       <c r="AC4" s="1">
-        <v>-91.169200</v>
+        <v>-91.169200000000004</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>36618.941116</v>
+        <v>36618.941116000002</v>
       </c>
       <c r="AF4" s="1">
-        <v>10.171928</v>
+        <v>10.171927999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>1230.570000</v>
+        <v>1230.57</v>
       </c>
       <c r="AH4" s="1">
-        <v>-86.511800</v>
+        <v>-86.511799999999994</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>36628.977624</v>
+        <v>36628.977623999999</v>
       </c>
       <c r="AK4" s="1">
         <v>10.174716</v>
       </c>
       <c r="AL4" s="1">
-        <v>1237.610000</v>
+        <v>1237.6099999999999</v>
       </c>
       <c r="AM4" s="1">
-        <v>-89.803000</v>
+        <v>-89.802999999999997</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>36639.243324</v>
+        <v>36639.243324000003</v>
       </c>
       <c r="AP4" s="1">
-        <v>10.177568</v>
+        <v>10.177568000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1245.450000</v>
+        <v>1245.45</v>
       </c>
       <c r="AR4" s="1">
-        <v>-101.727000</v>
+        <v>-101.727</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>36650.233456</v>
+        <v>36650.233456000002</v>
       </c>
       <c r="AU4" s="1">
-        <v>10.180620</v>
+        <v>10.180619999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>1255.230000</v>
+        <v>1255.23</v>
       </c>
       <c r="AW4" s="1">
-        <v>-121.226000</v>
+        <v>-121.226</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>36661.367870</v>
+        <v>36661.367870000002</v>
       </c>
       <c r="AZ4" s="1">
-        <v>10.183713</v>
+        <v>10.183712999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>1263.560000</v>
+        <v>1263.56</v>
       </c>
       <c r="BB4" s="1">
-        <v>-138.858000</v>
+        <v>-138.858</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>36671.965400</v>
+        <v>36671.965400000001</v>
       </c>
       <c r="BE4" s="1">
         <v>10.186657</v>
       </c>
       <c r="BF4" s="1">
-        <v>1303.240000</v>
+        <v>1303.24</v>
       </c>
       <c r="BG4" s="1">
-        <v>-222.033000</v>
+        <v>-222.03299999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>36683.028657</v>
+        <v>36683.028657000003</v>
       </c>
       <c r="BJ4" s="1">
-        <v>10.189730</v>
+        <v>10.189730000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1372.640000</v>
+        <v>1372.64</v>
       </c>
       <c r="BL4" s="1">
-        <v>-361.105000</v>
+        <v>-361.10500000000002</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>36694.128132</v>
+        <v>36694.128131999998</v>
       </c>
       <c r="BO4" s="1">
-        <v>10.192813</v>
+        <v>10.192812999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1487.190000</v>
+        <v>1487.19</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-588.070000</v>
+        <v>-588.07000000000005</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>36704.895781</v>
+        <v>36704.895780999999</v>
       </c>
       <c r="BT4" s="1">
-        <v>10.195804</v>
+        <v>10.195804000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>1620.130000</v>
+        <v>1620.13</v>
       </c>
       <c r="BV4" s="1">
-        <v>-844.538000</v>
+        <v>-844.53800000000001</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>36715.968966</v>
       </c>
       <c r="BY4" s="1">
-        <v>10.198880</v>
+        <v>10.198880000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1772.900000</v>
+        <v>1772.9</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1125.200000</v>
+        <v>-1125.2</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>36727.455850</v>
+        <v>36727.455849999998</v>
       </c>
       <c r="CD4" s="1">
         <v>10.202071</v>
       </c>
       <c r="CE4" s="1">
-        <v>2194.630000</v>
+        <v>2194.63</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1805.780000</v>
+        <v>-1805.78</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>36557.859766</v>
+        <v>36557.859766000001</v>
       </c>
       <c r="B5" s="1">
         <v>10.154961</v>
       </c>
       <c r="C5" s="1">
-        <v>1154.770000</v>
+        <v>1154.77</v>
       </c>
       <c r="D5" s="1">
-        <v>-259.334000</v>
+        <v>-259.334</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>36568.208281</v>
+        <v>36568.208280999999</v>
       </c>
       <c r="G5" s="1">
         <v>10.157836</v>
       </c>
       <c r="H5" s="1">
-        <v>1176.140000</v>
+        <v>1176.1400000000001</v>
       </c>
       <c r="I5" s="1">
-        <v>-217.329000</v>
+        <v>-217.32900000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>36578.377757</v>
+        <v>36578.377757000002</v>
       </c>
       <c r="L5" s="1">
-        <v>10.160660</v>
+        <v>10.16066</v>
       </c>
       <c r="M5" s="1">
-        <v>1203.300000</v>
+        <v>1203.3</v>
       </c>
       <c r="N5" s="1">
-        <v>-151.285000</v>
+        <v>-151.285</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>36588.896450</v>
+        <v>36588.89645</v>
       </c>
       <c r="Q5" s="1">
         <v>10.163582</v>
       </c>
       <c r="R5" s="1">
-        <v>1211.000000</v>
+        <v>1211</v>
       </c>
       <c r="S5" s="1">
-        <v>-129.172000</v>
+        <v>-129.172</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>36598.883858</v>
+        <v>36598.883858000001</v>
       </c>
       <c r="V5" s="1">
         <v>10.166357</v>
       </c>
       <c r="W5" s="1">
-        <v>1218.250000</v>
+        <v>1218.25</v>
       </c>
       <c r="X5" s="1">
-        <v>-108.051000</v>
+        <v>-108.051</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>36609.128724</v>
+        <v>36609.128724000002</v>
       </c>
       <c r="AA5" s="1">
         <v>10.169202</v>
       </c>
       <c r="AB5" s="1">
-        <v>1225.750000</v>
+        <v>1225.75</v>
       </c>
       <c r="AC5" s="1">
-        <v>-91.140800</v>
+        <v>-91.140799999999999</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>36619.205974</v>
+        <v>36619.205973999997</v>
       </c>
       <c r="AF5" s="1">
-        <v>10.172002</v>
+        <v>10.172002000000001</v>
       </c>
       <c r="AG5" s="1">
-        <v>1230.550000</v>
+        <v>1230.55</v>
       </c>
       <c r="AH5" s="1">
-        <v>-86.555500</v>
+        <v>-86.555499999999995</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>36629.330280</v>
+        <v>36629.330280000002</v>
       </c>
       <c r="AK5" s="1">
         <v>10.174814</v>
       </c>
       <c r="AL5" s="1">
-        <v>1237.580000</v>
+        <v>1237.58</v>
       </c>
       <c r="AM5" s="1">
-        <v>-89.802100</v>
+        <v>-89.802099999999996</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
         <v>36639.606431</v>
       </c>
       <c r="AP5" s="1">
-        <v>10.177668</v>
+        <v>10.177668000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1245.450000</v>
+        <v>1245.45</v>
       </c>
       <c r="AR5" s="1">
-        <v>-101.741000</v>
+        <v>-101.741</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>36650.596283</v>
+        <v>36650.596282999999</v>
       </c>
       <c r="AU5" s="1">
         <v>10.180721</v>
       </c>
       <c r="AV5" s="1">
-        <v>1255.240000</v>
+        <v>1255.24</v>
       </c>
       <c r="AW5" s="1">
-        <v>-121.244000</v>
+        <v>-121.244</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>36661.819262</v>
+        <v>36661.819261999997</v>
       </c>
       <c r="AZ5" s="1">
-        <v>10.183839</v>
+        <v>10.183839000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1263.550000</v>
+        <v>1263.55</v>
       </c>
       <c r="BB5" s="1">
-        <v>-138.862000</v>
+        <v>-138.86199999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
         <v>36672.688596</v>
       </c>
       <c r="BE5" s="1">
-        <v>10.186858</v>
+        <v>10.186858000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1303.250000</v>
+        <v>1303.25</v>
       </c>
       <c r="BG5" s="1">
-        <v>-222.014000</v>
+        <v>-222.01400000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>36683.390272</v>
+        <v>36683.390271999997</v>
       </c>
       <c r="BJ5" s="1">
         <v>10.189831</v>
       </c>
       <c r="BK5" s="1">
-        <v>1372.660000</v>
+        <v>1372.66</v>
       </c>
       <c r="BL5" s="1">
-        <v>-361.036000</v>
+        <v>-361.036</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>36694.526914</v>
+        <v>36694.526914000002</v>
       </c>
       <c r="BO5" s="1">
         <v>10.192924</v>
       </c>
       <c r="BP5" s="1">
-        <v>1487.210000</v>
+        <v>1487.21</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-588.046000</v>
+        <v>-588.04600000000005</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>36705.313908</v>
+        <v>36705.313907999996</v>
       </c>
       <c r="BT5" s="1">
         <v>10.195921</v>
       </c>
       <c r="BU5" s="1">
-        <v>1620.040000</v>
+        <v>1620.04</v>
       </c>
       <c r="BV5" s="1">
-        <v>-844.662000</v>
+        <v>-844.66200000000003</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>36716.710005</v>
+        <v>36716.710005000001</v>
       </c>
       <c r="BY5" s="1">
-        <v>10.199086</v>
+        <v>10.199085999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1772.960000</v>
+        <v>1772.96</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1124.890000</v>
+        <v>-1124.8900000000001</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>36728.279174</v>
+        <v>36728.279174000003</v>
       </c>
       <c r="CD5" s="1">
-        <v>10.202300</v>
+        <v>10.202299999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>2193.870000</v>
+        <v>2193.87</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1807.920000</v>
+        <v>-1807.92</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>36558.201992</v>
+        <v>36558.201992000002</v>
       </c>
       <c r="B6" s="1">
         <v>10.155056</v>
       </c>
       <c r="C6" s="1">
-        <v>1154.660000</v>
+        <v>1154.6600000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>-259.723000</v>
+        <v>-259.72300000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>36568.549558</v>
+        <v>36568.549557999999</v>
       </c>
       <c r="G6" s="1">
-        <v>10.157930</v>
+        <v>10.15793</v>
       </c>
       <c r="H6" s="1">
-        <v>1175.500000</v>
+        <v>1175.5</v>
       </c>
       <c r="I6" s="1">
-        <v>-217.514000</v>
+        <v>-217.51400000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>36578.809275</v>
       </c>
       <c r="L6" s="1">
-        <v>10.160780</v>
+        <v>10.160780000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>1203.490000</v>
+        <v>1203.49</v>
       </c>
       <c r="N6" s="1">
-        <v>-150.982000</v>
+        <v>-150.982</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>36589.321027</v>
+        <v>36589.321026999998</v>
       </c>
       <c r="Q6" s="1">
-        <v>10.163700</v>
+        <v>10.1637</v>
       </c>
       <c r="R6" s="1">
-        <v>1211.040000</v>
+        <v>1211.04</v>
       </c>
       <c r="S6" s="1">
-        <v>-129.179000</v>
+        <v>-129.179</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>36599.164625</v>
+        <v>36599.164624999998</v>
       </c>
       <c r="V6" s="1">
         <v>10.166435</v>
       </c>
       <c r="W6" s="1">
-        <v>1218.330000</v>
+        <v>1218.33</v>
       </c>
       <c r="X6" s="1">
-        <v>-108.107000</v>
+        <v>-108.107</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>36609.327159</v>
       </c>
       <c r="AA6" s="1">
-        <v>10.169258</v>
+        <v>10.169257999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>1225.840000</v>
+        <v>1225.8399999999999</v>
       </c>
       <c r="AC6" s="1">
-        <v>-91.181500</v>
+        <v>-91.1815</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>36619.550661</v>
+        <v>36619.550661000001</v>
       </c>
       <c r="AF6" s="1">
-        <v>10.172097</v>
+        <v>10.172097000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>1230.580000</v>
+        <v>1230.58</v>
       </c>
       <c r="AH6" s="1">
-        <v>-86.538700</v>
+        <v>-86.538700000000006</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>36629.679464</v>
+        <v>36629.679464000001</v>
       </c>
       <c r="AK6" s="1">
         <v>10.174911</v>
       </c>
       <c r="AL6" s="1">
-        <v>1237.600000</v>
+        <v>1237.5999999999999</v>
       </c>
       <c r="AM6" s="1">
-        <v>-89.825500</v>
+        <v>-89.825500000000005</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>36639.965029</v>
+        <v>36639.965028999999</v>
       </c>
       <c r="AP6" s="1">
         <v>10.177768</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1245.420000</v>
+        <v>1245.42</v>
       </c>
       <c r="AR6" s="1">
-        <v>-101.738000</v>
+        <v>-101.738</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>36651.324876</v>
+        <v>36651.324875999999</v>
       </c>
       <c r="AU6" s="1">
-        <v>10.180924</v>
+        <v>10.180923999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>1255.260000</v>
+        <v>1255.26</v>
       </c>
       <c r="AW6" s="1">
-        <v>-121.239000</v>
+        <v>-121.239</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>36662.134226</v>
+        <v>36662.134226000002</v>
       </c>
       <c r="AZ6" s="1">
         <v>10.183926</v>
       </c>
       <c r="BA6" s="1">
-        <v>1263.560000</v>
+        <v>1263.56</v>
       </c>
       <c r="BB6" s="1">
-        <v>-138.873000</v>
+        <v>-138.87299999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>36673.049183</v>
+        <v>36673.049183000003</v>
       </c>
       <c r="BE6" s="1">
-        <v>10.186958</v>
+        <v>10.186958000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1303.270000</v>
+        <v>1303.27</v>
       </c>
       <c r="BG6" s="1">
-        <v>-222.001000</v>
+        <v>-222.001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>36683.765713</v>
+        <v>36683.765713000001</v>
       </c>
       <c r="BJ6" s="1">
         <v>10.189935</v>
       </c>
       <c r="BK6" s="1">
-        <v>1372.650000</v>
+        <v>1372.65</v>
       </c>
       <c r="BL6" s="1">
-        <v>-361.055000</v>
+        <v>-361.05500000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>36694.949505</v>
+        <v>36694.949504999997</v>
       </c>
       <c r="BO6" s="1">
         <v>10.193042</v>
       </c>
       <c r="BP6" s="1">
-        <v>1487.240000</v>
+        <v>1487.24</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-588.067000</v>
+        <v>-588.06700000000001</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>36706.021204</v>
+        <v>36706.021203999997</v>
       </c>
       <c r="BT6" s="1">
-        <v>10.196117</v>
+        <v>10.196116999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>1620.130000</v>
+        <v>1620.13</v>
       </c>
       <c r="BV6" s="1">
-        <v>-844.625000</v>
+        <v>-844.625</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>36716.832533</v>
+        <v>36716.832533000001</v>
       </c>
       <c r="BY6" s="1">
-        <v>10.199120</v>
+        <v>10.199120000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1772.800000</v>
+        <v>1772.8</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1125.130000</v>
+        <v>-1125.1300000000001</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>36728.522709</v>
+        <v>36728.522708999997</v>
       </c>
       <c r="CD6" s="1">
-        <v>10.202367</v>
+        <v>10.202367000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>2195.940000</v>
+        <v>2195.94</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1808.250000</v>
+        <v>-1808.25</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>36558.626102</v>
+        <v>36558.626102000002</v>
       </c>
       <c r="B7" s="1">
-        <v>10.155174</v>
+        <v>10.155174000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>1154.530000</v>
+        <v>1154.53</v>
       </c>
       <c r="D7" s="1">
-        <v>-259.742000</v>
+        <v>-259.74200000000002</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>36568.970136</v>
+        <v>36568.970136000004</v>
       </c>
       <c r="G7" s="1">
         <v>10.158047</v>
       </c>
       <c r="H7" s="1">
-        <v>1175.350000</v>
+        <v>1175.3499999999999</v>
       </c>
       <c r="I7" s="1">
-        <v>-217.395000</v>
+        <v>-217.39500000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>36579.085546</v>
+        <v>36579.085546000002</v>
       </c>
       <c r="L7" s="1">
         <v>10.160857</v>
       </c>
       <c r="M7" s="1">
-        <v>1203.210000</v>
+        <v>1203.21</v>
       </c>
       <c r="N7" s="1">
-        <v>-151.262000</v>
+        <v>-151.262</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>36589.596766</v>
+        <v>36589.596766000002</v>
       </c>
       <c r="Q7" s="1">
         <v>10.163777</v>
       </c>
       <c r="R7" s="1">
-        <v>1211.070000</v>
+        <v>1211.07</v>
       </c>
       <c r="S7" s="1">
-        <v>-129.172000</v>
+        <v>-129.172</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>36599.508321</v>
+        <v>36599.508321000001</v>
       </c>
       <c r="V7" s="1">
-        <v>10.166530</v>
+        <v>10.16653</v>
       </c>
       <c r="W7" s="1">
-        <v>1218.200000</v>
+        <v>1218.2</v>
       </c>
       <c r="X7" s="1">
-        <v>-108.139000</v>
+        <v>-108.139</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
         <v>36609.678322</v>
       </c>
       <c r="AA7" s="1">
-        <v>10.169355</v>
+        <v>10.169354999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>1225.930000</v>
+        <v>1225.93</v>
       </c>
       <c r="AC7" s="1">
-        <v>-91.139200</v>
+        <v>-91.139200000000002</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>36619.891414</v>
+        <v>36619.891413999998</v>
       </c>
       <c r="AF7" s="1">
-        <v>10.172192</v>
+        <v>10.172192000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>1230.550000</v>
+        <v>1230.55</v>
       </c>
       <c r="AH7" s="1">
-        <v>-86.506300</v>
+        <v>-86.506299999999996</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>36630.376344</v>
+        <v>36630.376343999997</v>
       </c>
       <c r="AK7" s="1">
         <v>10.175105</v>
       </c>
       <c r="AL7" s="1">
-        <v>1237.600000</v>
+        <v>1237.5999999999999</v>
       </c>
       <c r="AM7" s="1">
-        <v>-89.811800</v>
+        <v>-89.811800000000005</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>36640.683248</v>
+        <v>36640.683248000001</v>
       </c>
       <c r="AP7" s="1">
         <v>10.177968</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1245.420000</v>
+        <v>1245.42</v>
       </c>
       <c r="AR7" s="1">
-        <v>-101.733000</v>
+        <v>-101.733</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>36651.715260</v>
+        <v>36651.715259999997</v>
       </c>
       <c r="AU7" s="1">
         <v>10.181032</v>
       </c>
       <c r="AV7" s="1">
-        <v>1255.240000</v>
+        <v>1255.24</v>
       </c>
       <c r="AW7" s="1">
-        <v>-121.230000</v>
+        <v>-121.23</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>36662.493331</v>
+        <v>36662.493330999998</v>
       </c>
       <c r="AZ7" s="1">
-        <v>10.184026</v>
+        <v>10.184025999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1263.580000</v>
+        <v>1263.58</v>
       </c>
       <c r="BB7" s="1">
-        <v>-138.868000</v>
+        <v>-138.86799999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>36673.410766</v>
+        <v>36673.410766000001</v>
       </c>
       <c r="BE7" s="1">
         <v>10.187059</v>
       </c>
       <c r="BF7" s="1">
-        <v>1303.230000</v>
+        <v>1303.23</v>
       </c>
       <c r="BG7" s="1">
-        <v>-222.027000</v>
+        <v>-222.02699999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>36684.449696</v>
+        <v>36684.449696000003</v>
       </c>
       <c r="BJ7" s="1">
         <v>10.190125</v>
       </c>
       <c r="BK7" s="1">
-        <v>1372.700000</v>
+        <v>1372.7</v>
       </c>
       <c r="BL7" s="1">
-        <v>-361.098000</v>
+        <v>-361.09800000000001</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>36695.673169</v>
+        <v>36695.673169000002</v>
       </c>
       <c r="BO7" s="1">
-        <v>10.193243</v>
+        <v>10.193243000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1487.230000</v>
+        <v>1487.23</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-588.081000</v>
+        <v>-588.08100000000002</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>36706.166035</v>
+        <v>36706.166035000002</v>
       </c>
       <c r="BT7" s="1">
-        <v>10.196157</v>
+        <v>10.196156999999999</v>
       </c>
       <c r="BU7" s="1">
-        <v>1620.210000</v>
+        <v>1620.21</v>
       </c>
       <c r="BV7" s="1">
-        <v>-844.654000</v>
+        <v>-844.654</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>36717.258570</v>
+        <v>36717.258569999998</v>
       </c>
       <c r="BY7" s="1">
-        <v>10.199238</v>
+        <v>10.199237999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1772.960000</v>
+        <v>1772.96</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1125.200000</v>
+        <v>-1125.2</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>36729.058895</v>
+        <v>36729.058895000002</v>
       </c>
       <c r="CD7" s="1">
-        <v>10.202516</v>
+        <v>10.202515999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>2194.590000</v>
+        <v>2194.59</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1806.410000</v>
+        <v>-1806.41</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>36558.883493</v>
+        <v>36558.883493000001</v>
       </c>
       <c r="B8" s="1">
-        <v>10.155245</v>
+        <v>10.155245000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>1154.730000</v>
+        <v>1154.73</v>
       </c>
       <c r="D8" s="1">
-        <v>-259.690000</v>
+        <v>-259.69</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>36569.258343</v>
+        <v>36569.258343000001</v>
       </c>
       <c r="G8" s="1">
         <v>10.158127</v>
       </c>
       <c r="H8" s="1">
-        <v>1176.000000</v>
+        <v>1176</v>
       </c>
       <c r="I8" s="1">
-        <v>-217.376000</v>
+        <v>-217.376</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>36579.434236</v>
+        <v>36579.434236000001</v>
       </c>
       <c r="L8" s="1">
         <v>10.160954</v>
       </c>
       <c r="M8" s="1">
-        <v>1203.490000</v>
+        <v>1203.49</v>
       </c>
       <c r="N8" s="1">
-        <v>-151.499000</v>
+        <v>-151.499</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>36589.949422</v>
+        <v>36589.949421999998</v>
       </c>
       <c r="Q8" s="1">
-        <v>10.163875</v>
+        <v>10.163875000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>1211.070000</v>
+        <v>1211.07</v>
       </c>
       <c r="S8" s="1">
-        <v>-129.229000</v>
+        <v>-129.22900000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>36599.850561</v>
+        <v>36599.850560999999</v>
       </c>
       <c r="V8" s="1">
         <v>10.166625</v>
       </c>
       <c r="W8" s="1">
-        <v>1218.310000</v>
+        <v>1218.31</v>
       </c>
       <c r="X8" s="1">
-        <v>-108.131000</v>
+        <v>-108.131</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>36610.374209</v>
+        <v>36610.374209000001</v>
       </c>
       <c r="AA8" s="1">
-        <v>10.169548</v>
+        <v>10.169548000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>1225.960000</v>
+        <v>1225.96</v>
       </c>
       <c r="AC8" s="1">
-        <v>-91.104100</v>
+        <v>-91.104100000000003</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>36620.579860</v>
+        <v>36620.579859999998</v>
       </c>
       <c r="AF8" s="1">
         <v>10.172383</v>
       </c>
       <c r="AG8" s="1">
-        <v>1230.570000</v>
+        <v>1230.57</v>
       </c>
       <c r="AH8" s="1">
-        <v>-86.504000</v>
+        <v>-86.504000000000005</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
         <v>36630.723048</v>
       </c>
       <c r="AK8" s="1">
-        <v>10.175201</v>
+        <v>10.175200999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>1237.630000</v>
+        <v>1237.6300000000001</v>
       </c>
       <c r="AM8" s="1">
-        <v>-89.811700</v>
+        <v>-89.811700000000002</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>36641.046809</v>
+        <v>36641.046808999999</v>
       </c>
       <c r="AP8" s="1">
-        <v>10.178069</v>
+        <v>10.178069000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1245.420000</v>
+        <v>1245.42</v>
       </c>
       <c r="AR8" s="1">
-        <v>-101.761000</v>
+        <v>-101.761</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>36652.083425</v>
+        <v>36652.083424999997</v>
       </c>
       <c r="AU8" s="1">
         <v>10.181134</v>
       </c>
       <c r="AV8" s="1">
-        <v>1255.230000</v>
+        <v>1255.23</v>
       </c>
       <c r="AW8" s="1">
-        <v>-121.199000</v>
+        <v>-121.199</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>36663.156940</v>
+        <v>36663.156940000001</v>
       </c>
       <c r="AZ8" s="1">
-        <v>10.184210</v>
+        <v>10.18421</v>
       </c>
       <c r="BA8" s="1">
-        <v>1263.560000</v>
+        <v>1263.56</v>
       </c>
       <c r="BB8" s="1">
-        <v>-138.874000</v>
+        <v>-138.874</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>36674.079838</v>
+        <v>36674.079837999998</v>
       </c>
       <c r="BE8" s="1">
         <v>10.187244</v>
       </c>
       <c r="BF8" s="1">
-        <v>1303.250000</v>
+        <v>1303.25</v>
       </c>
       <c r="BG8" s="1">
-        <v>-222.019000</v>
+        <v>-222.01900000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>36684.888687</v>
+        <v>36684.888686999999</v>
       </c>
       <c r="BJ8" s="1">
-        <v>10.190247</v>
+        <v>10.190246999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1372.650000</v>
+        <v>1372.65</v>
       </c>
       <c r="BL8" s="1">
-        <v>-361.069000</v>
+        <v>-361.06900000000002</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>36695.804149</v>
+        <v>36695.804149000003</v>
       </c>
       <c r="BO8" s="1">
         <v>10.193279</v>
       </c>
       <c r="BP8" s="1">
-        <v>1487.220000</v>
+        <v>1487.22</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-588.062000</v>
+        <v>-588.06200000000001</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>36706.601522</v>
+        <v>36706.601521999997</v>
       </c>
       <c r="BT8" s="1">
         <v>10.196278</v>
       </c>
       <c r="BU8" s="1">
-        <v>1620.250000</v>
+        <v>1620.25</v>
       </c>
       <c r="BV8" s="1">
-        <v>-844.817000</v>
+        <v>-844.81700000000001</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>36717.676232</v>
+        <v>36717.676231999998</v>
       </c>
       <c r="BY8" s="1">
-        <v>10.199355</v>
+        <v>10.199355000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1772.930000</v>
+        <v>1772.93</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1125.100000</v>
+        <v>-1125.0999999999999</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>36729.597045</v>
+        <v>36729.597045000002</v>
       </c>
       <c r="CD8" s="1">
-        <v>10.202666</v>
+        <v>10.202666000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>2194.630000</v>
+        <v>2194.63</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1808.690000</v>
+        <v>-1808.69</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
         <v>36559.225735</v>
       </c>
       <c r="B9" s="1">
-        <v>10.155340</v>
+        <v>10.155340000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>1154.700000</v>
+        <v>1154.7</v>
       </c>
       <c r="D9" s="1">
-        <v>-259.451000</v>
+        <v>-259.45100000000002</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>36569.606506</v>
+        <v>36569.606505999996</v>
       </c>
       <c r="G9" s="1">
-        <v>10.158224</v>
+        <v>10.158224000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>1175.820000</v>
+        <v>1175.82</v>
       </c>
       <c r="I9" s="1">
-        <v>-217.465000</v>
+        <v>-217.465</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>36579.781470</v>
+        <v>36579.781470000002</v>
       </c>
       <c r="L9" s="1">
-        <v>10.161050</v>
+        <v>10.161049999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>1203.150000</v>
+        <v>1203.1500000000001</v>
       </c>
       <c r="N9" s="1">
-        <v>-151.205000</v>
+        <v>-151.20500000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>36590.297613</v>
+        <v>36590.297613000002</v>
       </c>
       <c r="Q9" s="1">
-        <v>10.163972</v>
+        <v>10.163971999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>1210.940000</v>
+        <v>1210.94</v>
       </c>
       <c r="S9" s="1">
-        <v>-129.081000</v>
+        <v>-129.08099999999999</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>36600.538511</v>
+        <v>36600.538510999999</v>
       </c>
       <c r="V9" s="1">
-        <v>10.166816</v>
+        <v>10.166816000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>1218.210000</v>
+        <v>1218.21</v>
       </c>
       <c r="X9" s="1">
-        <v>-108.058000</v>
+        <v>-108.05800000000001</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>36610.721378</v>
+        <v>36610.721378000002</v>
       </c>
       <c r="AA9" s="1">
-        <v>10.169645</v>
+        <v>10.169644999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>1225.920000</v>
+        <v>1225.92</v>
       </c>
       <c r="AC9" s="1">
-        <v>-91.108600</v>
+        <v>-91.108599999999996</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
         <v>36620.922627</v>
       </c>
       <c r="AF9" s="1">
-        <v>10.172479</v>
+        <v>10.172478999999999</v>
       </c>
       <c r="AG9" s="1">
-        <v>1230.580000</v>
+        <v>1230.58</v>
       </c>
       <c r="AH9" s="1">
-        <v>-86.555700</v>
+        <v>-86.555700000000002</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>36631.071238</v>
+        <v>36631.071237999997</v>
       </c>
       <c r="AK9" s="1">
         <v>10.175298</v>
       </c>
       <c r="AL9" s="1">
-        <v>1237.620000</v>
+        <v>1237.6199999999999</v>
       </c>
       <c r="AM9" s="1">
-        <v>-89.785500</v>
+        <v>-89.785499999999999</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>36641.404428</v>
+        <v>36641.404428000002</v>
       </c>
       <c r="AP9" s="1">
-        <v>10.178168</v>
+        <v>10.178167999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1245.450000</v>
+        <v>1245.45</v>
       </c>
       <c r="AR9" s="1">
-        <v>-101.723000</v>
+        <v>-101.723</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>36652.763273</v>
+        <v>36652.763272999997</v>
       </c>
       <c r="AU9" s="1">
-        <v>10.181323</v>
+        <v>10.181323000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>1255.240000</v>
+        <v>1255.24</v>
       </c>
       <c r="AW9" s="1">
-        <v>-121.210000</v>
+        <v>-121.21</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>36663.571598</v>
+        <v>36663.571598000002</v>
       </c>
       <c r="AZ9" s="1">
-        <v>10.184325</v>
+        <v>10.184324999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1263.570000</v>
+        <v>1263.57</v>
       </c>
       <c r="BB9" s="1">
-        <v>-138.891000</v>
+        <v>-138.89099999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>36674.519294</v>
+        <v>36674.519293999998</v>
       </c>
       <c r="BE9" s="1">
-        <v>10.187366</v>
+        <v>10.187366000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1303.230000</v>
+        <v>1303.23</v>
       </c>
       <c r="BG9" s="1">
-        <v>-222.020000</v>
+        <v>-222.02</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>36685.265647</v>
       </c>
       <c r="BJ9" s="1">
-        <v>10.190352</v>
+        <v>10.190352000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1372.720000</v>
+        <v>1372.72</v>
       </c>
       <c r="BL9" s="1">
-        <v>-361.055000</v>
+        <v>-361.05500000000001</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>36696.187520</v>
+        <v>36696.187519999999</v>
       </c>
       <c r="BO9" s="1">
-        <v>10.193385</v>
+        <v>10.193384999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1487.240000</v>
+        <v>1487.24</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-588.107000</v>
+        <v>-588.10699999999997</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>36707.031057</v>
@@ -2490,392 +2906,392 @@
         <v>10.196398</v>
       </c>
       <c r="BU9" s="1">
-        <v>1620.250000</v>
+        <v>1620.25</v>
       </c>
       <c r="BV9" s="1">
-        <v>-844.894000</v>
+        <v>-844.89400000000001</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>36718.123092</v>
+        <v>36718.123092000002</v>
       </c>
       <c r="BY9" s="1">
         <v>10.199479</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1772.910000</v>
+        <v>1772.91</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1124.990000</v>
+        <v>-1124.99</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>36730.137684</v>
+        <v>36730.137684000001</v>
       </c>
       <c r="CD9" s="1">
         <v>10.202816</v>
       </c>
       <c r="CE9" s="1">
-        <v>2195.780000</v>
+        <v>2195.7800000000002</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1806.260000</v>
+        <v>-1806.26</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>36559.566982</v>
+        <v>36559.566981999997</v>
       </c>
       <c r="B10" s="1">
-        <v>10.155435</v>
+        <v>10.155435000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>1154.440000</v>
+        <v>1154.44</v>
       </c>
       <c r="D10" s="1">
-        <v>-259.828000</v>
+        <v>-259.82799999999997</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>36569.948246</v>
       </c>
       <c r="G10" s="1">
-        <v>10.158319</v>
+        <v>10.158319000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>1176.620000</v>
+        <v>1176.6199999999999</v>
       </c>
       <c r="I10" s="1">
-        <v>-217.596000</v>
+        <v>-217.596</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>36580.462452</v>
       </c>
       <c r="L10" s="1">
-        <v>10.161240</v>
+        <v>10.161239999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>1203.430000</v>
+        <v>1203.43</v>
       </c>
       <c r="N10" s="1">
-        <v>-151.503000</v>
+        <v>-151.50299999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
         <v>36590.992542</v>
       </c>
       <c r="Q10" s="1">
-        <v>10.164165</v>
+        <v>10.164165000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>1210.870000</v>
+        <v>1210.8699999999999</v>
       </c>
       <c r="S10" s="1">
-        <v>-129.017000</v>
+        <v>-129.017</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>36600.882238</v>
+        <v>36600.882237999998</v>
       </c>
       <c r="V10" s="1">
         <v>10.166912</v>
       </c>
       <c r="W10" s="1">
-        <v>1218.380000</v>
+        <v>1218.3800000000001</v>
       </c>
       <c r="X10" s="1">
-        <v>-108.117000</v>
+        <v>-108.117</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>36611.071056</v>
+        <v>36611.071056000001</v>
       </c>
       <c r="AA10" s="1">
-        <v>10.169742</v>
+        <v>10.169741999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>1225.830000</v>
+        <v>1225.83</v>
       </c>
       <c r="AC10" s="1">
-        <v>-91.102100</v>
+        <v>-91.102099999999993</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>36621.269378</v>
+        <v>36621.269377999997</v>
       </c>
       <c r="AF10" s="1">
         <v>10.172575</v>
       </c>
       <c r="AG10" s="1">
-        <v>1230.570000</v>
+        <v>1230.57</v>
       </c>
       <c r="AH10" s="1">
-        <v>-86.493000</v>
+        <v>-86.492999999999995</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>36631.728474</v>
+        <v>36631.728474000003</v>
       </c>
       <c r="AK10" s="1">
-        <v>10.175480</v>
+        <v>10.17548</v>
       </c>
       <c r="AL10" s="1">
-        <v>1237.600000</v>
+        <v>1237.5999999999999</v>
       </c>
       <c r="AM10" s="1">
-        <v>-89.819800</v>
+        <v>-89.819800000000001</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>36642.070519</v>
+        <v>36642.070519000001</v>
       </c>
       <c r="AP10" s="1">
         <v>10.178353</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1245.420000</v>
+        <v>1245.42</v>
       </c>
       <c r="AR10" s="1">
-        <v>-101.745000</v>
+        <v>-101.745</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>36653.210666</v>
+        <v>36653.210665999999</v>
       </c>
       <c r="AU10" s="1">
         <v>10.181447</v>
       </c>
       <c r="AV10" s="1">
-        <v>1255.270000</v>
+        <v>1255.27</v>
       </c>
       <c r="AW10" s="1">
-        <v>-121.235000</v>
+        <v>-121.235</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>36663.948948</v>
+        <v>36663.948947999997</v>
       </c>
       <c r="AZ10" s="1">
-        <v>10.184430</v>
+        <v>10.184430000000001</v>
       </c>
       <c r="BA10" s="1">
-        <v>1263.570000</v>
+        <v>1263.57</v>
       </c>
       <c r="BB10" s="1">
-        <v>-138.878000</v>
+        <v>-138.87799999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>36674.882860</v>
+        <v>36674.882859999998</v>
       </c>
       <c r="BE10" s="1">
         <v>10.187467</v>
       </c>
       <c r="BF10" s="1">
-        <v>1303.230000</v>
+        <v>1303.23</v>
       </c>
       <c r="BG10" s="1">
-        <v>-222.007000</v>
+        <v>-222.00700000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>36685.639634</v>
+        <v>36685.639633999999</v>
       </c>
       <c r="BJ10" s="1">
         <v>10.190455</v>
       </c>
       <c r="BK10" s="1">
-        <v>1372.680000</v>
+        <v>1372.68</v>
       </c>
       <c r="BL10" s="1">
-        <v>-361.072000</v>
+        <v>-361.072</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>36696.618543</v>
+        <v>36696.618542999997</v>
       </c>
       <c r="BO10" s="1">
         <v>10.193505</v>
       </c>
       <c r="BP10" s="1">
-        <v>1487.250000</v>
+        <v>1487.25</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-588.167000</v>
+        <v>-588.16700000000003</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>36707.455669</v>
+        <v>36707.455669000003</v>
       </c>
       <c r="BT10" s="1">
         <v>10.196515</v>
       </c>
       <c r="BU10" s="1">
-        <v>1620.320000</v>
+        <v>1620.32</v>
       </c>
       <c r="BV10" s="1">
-        <v>-844.983000</v>
+        <v>-844.98299999999995</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>36718.545187</v>
+        <v>36718.545187000003</v>
       </c>
       <c r="BY10" s="1">
         <v>10.199596</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1772.850000</v>
+        <v>1772.85</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1125.120000</v>
+        <v>-1125.1199999999999</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>36730.676340</v>
+        <v>36730.676339999998</v>
       </c>
       <c r="CD10" s="1">
         <v>10.202966</v>
       </c>
       <c r="CE10" s="1">
-        <v>2193.620000</v>
+        <v>2193.62</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1807.820000</v>
+        <v>-1807.82</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>36560.248485</v>
+        <v>36560.248484999996</v>
       </c>
       <c r="B11" s="1">
-        <v>10.155625</v>
+        <v>10.155625000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>1154.590000</v>
+        <v>1154.5899999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>-259.928000</v>
+        <v>-259.928</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>36570.639175</v>
+        <v>36570.639174999997</v>
       </c>
       <c r="G11" s="1">
-        <v>10.158511</v>
+        <v>10.158511000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>1175.730000</v>
+        <v>1175.73</v>
       </c>
       <c r="I11" s="1">
-        <v>-217.176000</v>
+        <v>-217.17599999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>36580.820056</v>
+        <v>36580.820055999997</v>
       </c>
       <c r="L11" s="1">
         <v>10.161339</v>
       </c>
       <c r="M11" s="1">
-        <v>1203.230000</v>
+        <v>1203.23</v>
       </c>
       <c r="N11" s="1">
-        <v>-151.370000</v>
+        <v>-151.37</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>36591.344668</v>
+        <v>36591.344667999998</v>
       </c>
       <c r="Q11" s="1">
-        <v>10.164262</v>
+        <v>10.164262000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>1210.940000</v>
+        <v>1210.94</v>
       </c>
       <c r="S11" s="1">
-        <v>-128.974000</v>
+        <v>-128.97399999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>36601.226989</v>
+        <v>36601.226989000003</v>
       </c>
       <c r="V11" s="1">
         <v>10.167007</v>
       </c>
       <c r="W11" s="1">
-        <v>1218.270000</v>
+        <v>1218.27</v>
       </c>
       <c r="X11" s="1">
-        <v>-108.197000</v>
+        <v>-108.197</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>36611.729745</v>
+        <v>36611.729744999997</v>
       </c>
       <c r="AA11" s="1">
-        <v>10.169925</v>
+        <v>10.169924999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>1225.930000</v>
+        <v>1225.93</v>
       </c>
       <c r="AC11" s="1">
-        <v>-91.044700</v>
+        <v>-91.044700000000006</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
         <v>36621.919554</v>
@@ -2884,1645 +3300,1645 @@
         <v>10.172755</v>
       </c>
       <c r="AG11" s="1">
-        <v>1230.580000</v>
+        <v>1230.58</v>
       </c>
       <c r="AH11" s="1">
-        <v>-86.492700</v>
+        <v>-86.492699999999999</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>36632.116834</v>
       </c>
       <c r="AK11" s="1">
-        <v>10.175588</v>
+        <v>10.175587999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>1237.620000</v>
+        <v>1237.6199999999999</v>
       </c>
       <c r="AM11" s="1">
-        <v>-89.838500</v>
+        <v>-89.838499999999996</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>36642.518904</v>
+        <v>36642.518903999997</v>
       </c>
       <c r="AP11" s="1">
-        <v>10.178477</v>
+        <v>10.178477000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1245.410000</v>
+        <v>1245.4100000000001</v>
       </c>
       <c r="AR11" s="1">
-        <v>-101.742000</v>
+        <v>-101.742</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>36653.575756</v>
+        <v>36653.575755999998</v>
       </c>
       <c r="AU11" s="1">
         <v>10.181549</v>
       </c>
       <c r="AV11" s="1">
-        <v>1255.210000</v>
+        <v>1255.21</v>
       </c>
       <c r="AW11" s="1">
-        <v>-121.223000</v>
+        <v>-121.223</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>36664.327003</v>
+        <v>36664.327002999999</v>
       </c>
       <c r="AZ11" s="1">
         <v>10.184535</v>
       </c>
       <c r="BA11" s="1">
-        <v>1263.530000</v>
+        <v>1263.53</v>
       </c>
       <c r="BB11" s="1">
-        <v>-138.883000</v>
+        <v>-138.88300000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>36675.242494</v>
+        <v>36675.242493999998</v>
       </c>
       <c r="BE11" s="1">
         <v>10.187567</v>
       </c>
       <c r="BF11" s="1">
-        <v>1303.270000</v>
+        <v>1303.27</v>
       </c>
       <c r="BG11" s="1">
-        <v>-222.039000</v>
+        <v>-222.03899999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>36686.040861</v>
+        <v>36686.040861000001</v>
       </c>
       <c r="BJ11" s="1">
         <v>10.190567</v>
       </c>
       <c r="BK11" s="1">
-        <v>1372.650000</v>
+        <v>1372.65</v>
       </c>
       <c r="BL11" s="1">
-        <v>-361.072000</v>
+        <v>-361.072</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>36697.008400</v>
+        <v>36697.008399999999</v>
       </c>
       <c r="BO11" s="1">
-        <v>10.193613</v>
+        <v>10.193612999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1487.220000</v>
+        <v>1487.22</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-588.105000</v>
+        <v>-588.10500000000002</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>36707.875778</v>
+        <v>36707.875778000001</v>
       </c>
       <c r="BT11" s="1">
-        <v>10.196632</v>
+        <v>10.196631999999999</v>
       </c>
       <c r="BU11" s="1">
-        <v>1620.280000</v>
+        <v>1620.28</v>
       </c>
       <c r="BV11" s="1">
-        <v>-845.086000</v>
+        <v>-845.08600000000001</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>36718.967318</v>
+        <v>36718.967318000003</v>
       </c>
       <c r="BY11" s="1">
-        <v>10.199713</v>
+        <v>10.199712999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1772.910000</v>
+        <v>1772.91</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1125.050000</v>
+        <v>-1125.05</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>36731.217515</v>
+        <v>36731.217514999997</v>
       </c>
       <c r="CD11" s="1">
         <v>10.203116</v>
       </c>
       <c r="CE11" s="1">
-        <v>2195.950000</v>
+        <v>2195.9499999999998</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1808.610000</v>
+        <v>-1808.61</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>36560.594195</v>
+        <v>36560.594194999998</v>
       </c>
       <c r="B12" s="1">
         <v>10.155721</v>
       </c>
       <c r="C12" s="1">
-        <v>1154.670000</v>
+        <v>1154.67</v>
       </c>
       <c r="D12" s="1">
-        <v>-260.096000</v>
+        <v>-260.096</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>36570.983893</v>
+        <v>36570.983892999997</v>
       </c>
       <c r="G12" s="1">
         <v>10.158607</v>
       </c>
       <c r="H12" s="1">
-        <v>1176.380000</v>
+        <v>1176.3800000000001</v>
       </c>
       <c r="I12" s="1">
-        <v>-217.394000</v>
+        <v>-217.39400000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>36581.162327</v>
+        <v>36581.162326999998</v>
       </c>
       <c r="L12" s="1">
         <v>10.161434</v>
       </c>
       <c r="M12" s="1">
-        <v>1203.280000</v>
+        <v>1203.28</v>
       </c>
       <c r="N12" s="1">
-        <v>-151.398000</v>
+        <v>-151.398</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>36591.693356</v>
+        <v>36591.693356000003</v>
       </c>
       <c r="Q12" s="1">
-        <v>10.164359</v>
+        <v>10.164358999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>1211.030000</v>
+        <v>1211.03</v>
       </c>
       <c r="S12" s="1">
-        <v>-128.900000</v>
+        <v>-128.9</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
         <v>36601.884156</v>
       </c>
       <c r="V12" s="1">
-        <v>10.167190</v>
+        <v>10.16719</v>
       </c>
       <c r="W12" s="1">
-        <v>1218.320000</v>
+        <v>1218.32</v>
       </c>
       <c r="X12" s="1">
-        <v>-108.281000</v>
+        <v>-108.28100000000001</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>36612.116623</v>
+        <v>36612.116623000002</v>
       </c>
       <c r="AA12" s="1">
-        <v>10.170032</v>
+        <v>10.170032000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>1225.930000</v>
+        <v>1225.93</v>
       </c>
       <c r="AC12" s="1">
-        <v>-91.079600</v>
+        <v>-91.079599999999999</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
         <v>36622.298529</v>
       </c>
       <c r="AF12" s="1">
-        <v>10.172861</v>
+        <v>10.172860999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>1230.550000</v>
+        <v>1230.55</v>
       </c>
       <c r="AH12" s="1">
-        <v>-86.546700</v>
+        <v>-86.546700000000001</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>36632.466484</v>
+        <v>36632.466483999997</v>
       </c>
       <c r="AK12" s="1">
         <v>10.175685</v>
       </c>
       <c r="AL12" s="1">
-        <v>1237.610000</v>
+        <v>1237.6099999999999</v>
       </c>
       <c r="AM12" s="1">
-        <v>-89.808500</v>
+        <v>-89.808499999999995</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>36642.877553</v>
+        <v>36642.877552999998</v>
       </c>
       <c r="AP12" s="1">
-        <v>10.178577</v>
+        <v>10.178577000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1245.450000</v>
+        <v>1245.45</v>
       </c>
       <c r="AR12" s="1">
-        <v>-101.752000</v>
+        <v>-101.752</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>36653.939325</v>
+        <v>36653.939324999999</v>
       </c>
       <c r="AU12" s="1">
-        <v>10.181650</v>
+        <v>10.181649999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>1255.260000</v>
+        <v>1255.26</v>
       </c>
       <c r="AW12" s="1">
-        <v>-121.215000</v>
+        <v>-121.215</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>36664.743643</v>
+        <v>36664.743643000002</v>
       </c>
       <c r="AZ12" s="1">
-        <v>10.184651</v>
+        <v>10.184651000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>1263.590000</v>
+        <v>1263.5899999999999</v>
       </c>
       <c r="BB12" s="1">
-        <v>-138.895000</v>
+        <v>-138.89500000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>36675.656621</v>
+        <v>36675.656621000002</v>
       </c>
       <c r="BE12" s="1">
-        <v>10.187682</v>
+        <v>10.187682000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1303.270000</v>
+        <v>1303.27</v>
       </c>
       <c r="BG12" s="1">
-        <v>-222.038000</v>
+        <v>-222.03800000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>36686.412863</v>
+        <v>36686.412862999998</v>
       </c>
       <c r="BJ12" s="1">
-        <v>10.190670</v>
+        <v>10.190670000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1372.620000</v>
+        <v>1372.62</v>
       </c>
       <c r="BL12" s="1">
-        <v>-361.054000</v>
+        <v>-361.05399999999997</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>36697.406686</v>
+        <v>36697.406686000002</v>
       </c>
       <c r="BO12" s="1">
         <v>10.193724</v>
       </c>
       <c r="BP12" s="1">
-        <v>1487.230000</v>
+        <v>1487.23</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-588.096000</v>
+        <v>-588.096</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>36708.303793</v>
+        <v>36708.303792999999</v>
       </c>
       <c r="BT12" s="1">
-        <v>10.196751</v>
+        <v>10.196751000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>1620.260000</v>
+        <v>1620.26</v>
       </c>
       <c r="BV12" s="1">
-        <v>-845.115000</v>
+        <v>-845.11500000000001</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
         <v>36719.418674</v>
       </c>
       <c r="BY12" s="1">
-        <v>10.199839</v>
+        <v>10.199839000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1772.810000</v>
+        <v>1772.81</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1125.130000</v>
+        <v>-1125.1300000000001</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>36731.757150</v>
+        <v>36731.757149999998</v>
       </c>
       <c r="CD12" s="1">
-        <v>10.203266</v>
+        <v>10.203265999999999</v>
       </c>
       <c r="CE12" s="1">
-        <v>2194.780000</v>
+        <v>2194.7800000000002</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1805.940000</v>
+        <v>-1805.94</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>36560.929492</v>
+        <v>36560.929492000003</v>
       </c>
       <c r="B13" s="1">
-        <v>10.155814</v>
+        <v>10.155813999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>1154.590000</v>
+        <v>1154.5899999999999</v>
       </c>
       <c r="D13" s="1">
-        <v>-259.753000</v>
+        <v>-259.75299999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>36571.329641</v>
+        <v>36571.329640999997</v>
       </c>
       <c r="G13" s="1">
-        <v>10.158703</v>
+        <v>10.158702999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>1175.760000</v>
+        <v>1175.76</v>
       </c>
       <c r="I13" s="1">
-        <v>-217.698000</v>
+        <v>-217.69800000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>36581.820024</v>
+        <v>36581.820024000001</v>
       </c>
       <c r="L13" s="1">
         <v>10.161617</v>
       </c>
       <c r="M13" s="1">
-        <v>1203.410000</v>
+        <v>1203.4100000000001</v>
       </c>
       <c r="N13" s="1">
-        <v>-151.688000</v>
+        <v>-151.68799999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>36592.135786</v>
+        <v>36592.135785999999</v>
       </c>
       <c r="Q13" s="1">
         <v>10.164482</v>
       </c>
       <c r="R13" s="1">
-        <v>1211.020000</v>
+        <v>1211.02</v>
       </c>
       <c r="S13" s="1">
-        <v>-128.952000</v>
+        <v>-128.952</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>36602.256192</v>
+        <v>36602.256192000001</v>
       </c>
       <c r="V13" s="1">
-        <v>10.167293</v>
+        <v>10.167293000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>1218.330000</v>
+        <v>1218.33</v>
       </c>
       <c r="X13" s="1">
-        <v>-108.214000</v>
+        <v>-108.214</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>36612.465343</v>
+        <v>36612.465343000003</v>
       </c>
       <c r="AA13" s="1">
-        <v>10.170129</v>
+        <v>10.170128999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>1225.900000</v>
+        <v>1225.9000000000001</v>
       </c>
       <c r="AC13" s="1">
-        <v>-90.994300</v>
+        <v>-90.994299999999996</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>36622.643714</v>
+        <v>36622.643713999998</v>
       </c>
       <c r="AF13" s="1">
         <v>10.172957</v>
       </c>
       <c r="AG13" s="1">
-        <v>1230.570000</v>
+        <v>1230.57</v>
       </c>
       <c r="AH13" s="1">
-        <v>-86.514200</v>
+        <v>-86.514200000000002</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>36632.815173</v>
+        <v>36632.815173000003</v>
       </c>
       <c r="AK13" s="1">
         <v>10.175782</v>
       </c>
       <c r="AL13" s="1">
-        <v>1237.620000</v>
+        <v>1237.6199999999999</v>
       </c>
       <c r="AM13" s="1">
-        <v>-89.804500</v>
+        <v>-89.804500000000004</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>36643.242070</v>
+        <v>36643.24207</v>
       </c>
       <c r="AP13" s="1">
         <v>10.178678</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1245.460000</v>
+        <v>1245.46</v>
       </c>
       <c r="AR13" s="1">
-        <v>-101.749000</v>
+        <v>-101.749</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>36654.359931</v>
+        <v>36654.359930999999</v>
       </c>
       <c r="AU13" s="1">
-        <v>10.181767</v>
+        <v>10.181767000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>1255.230000</v>
+        <v>1255.23</v>
       </c>
       <c r="AW13" s="1">
-        <v>-121.214000</v>
+        <v>-121.214</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>36665.044219</v>
+        <v>36665.044219000003</v>
       </c>
       <c r="AZ13" s="1">
         <v>10.184735</v>
       </c>
       <c r="BA13" s="1">
-        <v>1263.580000</v>
+        <v>1263.58</v>
       </c>
       <c r="BB13" s="1">
-        <v>-138.868000</v>
+        <v>-138.86799999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>36675.961695</v>
+        <v>36675.961694999998</v>
       </c>
       <c r="BE13" s="1">
-        <v>10.187767</v>
+        <v>10.187766999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1303.240000</v>
+        <v>1303.24</v>
       </c>
       <c r="BG13" s="1">
-        <v>-222.022000</v>
+        <v>-222.02199999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>36686.787373</v>
+        <v>36686.787372999999</v>
       </c>
       <c r="BJ13" s="1">
-        <v>10.190774</v>
+        <v>10.190773999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1372.640000</v>
+        <v>1372.64</v>
       </c>
       <c r="BL13" s="1">
-        <v>-361.053000</v>
+        <v>-361.053</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>36697.826302</v>
+        <v>36697.826302000001</v>
       </c>
       <c r="BO13" s="1">
-        <v>10.193841</v>
+        <v>10.193841000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1487.240000</v>
+        <v>1487.24</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-588.116000</v>
+        <v>-588.11599999999999</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>36708.711016</v>
+        <v>36708.711016000001</v>
       </c>
       <c r="BT13" s="1">
         <v>10.196864</v>
       </c>
       <c r="BU13" s="1">
-        <v>1620.180000</v>
+        <v>1620.18</v>
       </c>
       <c r="BV13" s="1">
-        <v>-845.218000</v>
+        <v>-845.21799999999996</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>36719.846690</v>
+        <v>36719.846689999998</v>
       </c>
       <c r="BY13" s="1">
-        <v>10.199957</v>
+        <v>10.199956999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1772.810000</v>
+        <v>1772.81</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1125.160000</v>
+        <v>-1125.1600000000001</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>36732.297296</v>
+        <v>36732.297295999997</v>
       </c>
       <c r="CD13" s="1">
-        <v>10.203416</v>
+        <v>10.203416000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>2194.060000</v>
+        <v>2194.06</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1808.890000</v>
+        <v>-1808.89</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>36561.586194</v>
+        <v>36561.586194000003</v>
       </c>
       <c r="B14" s="1">
         <v>10.155996</v>
       </c>
       <c r="C14" s="1">
-        <v>1154.780000</v>
+        <v>1154.78</v>
       </c>
       <c r="D14" s="1">
-        <v>-259.927000</v>
+        <v>-259.92700000000002</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>36571.976389</v>
+        <v>36571.976389000003</v>
       </c>
       <c r="G14" s="1">
         <v>10.158882</v>
       </c>
       <c r="H14" s="1">
-        <v>1176.420000</v>
+        <v>1176.42</v>
       </c>
       <c r="I14" s="1">
-        <v>-217.428000</v>
+        <v>-217.428</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>36582.201912</v>
+        <v>36582.201911999997</v>
       </c>
       <c r="L14" s="1">
         <v>10.161723</v>
       </c>
       <c r="M14" s="1">
-        <v>1203.410000</v>
+        <v>1203.4100000000001</v>
       </c>
       <c r="N14" s="1">
-        <v>-151.275000</v>
+        <v>-151.27500000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>36592.395195</v>
+        <v>36592.395194999997</v>
       </c>
       <c r="Q14" s="1">
-        <v>10.164554</v>
+        <v>10.164554000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>1210.980000</v>
+        <v>1210.98</v>
       </c>
       <c r="S14" s="1">
-        <v>-128.925000</v>
+        <v>-128.92500000000001</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>36602.602364</v>
+        <v>36602.602363999998</v>
       </c>
       <c r="V14" s="1">
-        <v>10.167390</v>
+        <v>10.167389999999999</v>
       </c>
       <c r="W14" s="1">
-        <v>1218.330000</v>
+        <v>1218.33</v>
       </c>
       <c r="X14" s="1">
-        <v>-108.208000</v>
+        <v>-108.208</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>36612.814031</v>
+        <v>36612.814031000002</v>
       </c>
       <c r="AA14" s="1">
         <v>10.170226</v>
       </c>
       <c r="AB14" s="1">
-        <v>1225.900000</v>
+        <v>1225.9000000000001</v>
       </c>
       <c r="AC14" s="1">
-        <v>-91.175600</v>
+        <v>-91.175600000000003</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>36622.987971</v>
+        <v>36622.987971000002</v>
       </c>
       <c r="AF14" s="1">
         <v>10.173052</v>
       </c>
       <c r="AG14" s="1">
-        <v>1230.560000</v>
+        <v>1230.56</v>
       </c>
       <c r="AH14" s="1">
-        <v>-86.509700</v>
+        <v>-86.509699999999995</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>36633.225363</v>
+        <v>36633.225362999998</v>
       </c>
       <c r="AK14" s="1">
         <v>10.175896</v>
       </c>
       <c r="AL14" s="1">
-        <v>1237.620000</v>
+        <v>1237.6199999999999</v>
       </c>
       <c r="AM14" s="1">
-        <v>-89.793400</v>
+        <v>-89.793400000000005</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>36643.740054</v>
+        <v>36643.740054000002</v>
       </c>
       <c r="AP14" s="1">
         <v>10.178817</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1245.420000</v>
+        <v>1245.42</v>
       </c>
       <c r="AR14" s="1">
-        <v>-101.766000</v>
+        <v>-101.76600000000001</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>36654.671881</v>
+        <v>36654.671881000002</v>
       </c>
       <c r="AU14" s="1">
         <v>10.181853</v>
       </c>
       <c r="AV14" s="1">
-        <v>1255.240000</v>
+        <v>1255.24</v>
       </c>
       <c r="AW14" s="1">
-        <v>-121.223000</v>
+        <v>-121.223</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>36665.406298</v>
+        <v>36665.406298000002</v>
       </c>
       <c r="AZ14" s="1">
         <v>10.184835</v>
       </c>
       <c r="BA14" s="1">
-        <v>1263.570000</v>
+        <v>1263.57</v>
       </c>
       <c r="BB14" s="1">
-        <v>-138.852000</v>
+        <v>-138.852</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>36676.325226</v>
+        <v>36676.325226000001</v>
       </c>
       <c r="BE14" s="1">
         <v>10.187868</v>
       </c>
       <c r="BF14" s="1">
-        <v>1303.260000</v>
+        <v>1303.26</v>
       </c>
       <c r="BG14" s="1">
-        <v>-222.029000</v>
+        <v>-222.029</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>36687.163629</v>
+        <v>36687.163629000002</v>
       </c>
       <c r="BJ14" s="1">
-        <v>10.190879</v>
+        <v>10.190879000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1372.650000</v>
+        <v>1372.65</v>
       </c>
       <c r="BL14" s="1">
-        <v>-361.049000</v>
+        <v>-361.04899999999998</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>36698.246413</v>
+        <v>36698.246413000001</v>
       </c>
       <c r="BO14" s="1">
-        <v>10.193957</v>
+        <v>10.193956999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1487.210000</v>
+        <v>1487.21</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-588.071000</v>
+        <v>-588.07100000000003</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>36709.146527</v>
+        <v>36709.146526999997</v>
       </c>
       <c r="BT14" s="1">
         <v>10.196985</v>
       </c>
       <c r="BU14" s="1">
-        <v>1620.230000</v>
+        <v>1620.23</v>
       </c>
       <c r="BV14" s="1">
-        <v>-845.256000</v>
+        <v>-845.25599999999997</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>36720.267298</v>
+        <v>36720.267297999999</v>
       </c>
       <c r="BY14" s="1">
-        <v>10.200074</v>
+        <v>10.200074000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1772.770000</v>
+        <v>1772.77</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1125.170000</v>
+        <v>-1125.17</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>36732.835919</v>
+        <v>36732.835918999997</v>
       </c>
       <c r="CD14" s="1">
         <v>10.203566</v>
       </c>
       <c r="CE14" s="1">
-        <v>2196.060000</v>
+        <v>2196.06</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1807.050000</v>
+        <v>-1807.05</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
         <v>36561.955748</v>
       </c>
       <c r="B15" s="1">
-        <v>10.156099</v>
+        <v>10.156098999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>1154.600000</v>
+        <v>1154.5999999999999</v>
       </c>
       <c r="D15" s="1">
-        <v>-259.674000</v>
+        <v>-259.67399999999998</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>36572.361320</v>
+        <v>36572.361320000004</v>
       </c>
       <c r="G15" s="1">
         <v>10.158989</v>
       </c>
       <c r="H15" s="1">
-        <v>1176.490000</v>
+        <v>1176.49</v>
       </c>
       <c r="I15" s="1">
-        <v>-217.529000</v>
+        <v>-217.529</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>36582.549148</v>
+        <v>36582.549147999998</v>
       </c>
       <c r="L15" s="1">
-        <v>10.161819</v>
+        <v>10.161818999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>1203.250000</v>
+        <v>1203.25</v>
       </c>
       <c r="N15" s="1">
-        <v>-151.418000</v>
+        <v>-151.41800000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>36592.754297</v>
+        <v>36592.754296999999</v>
       </c>
       <c r="Q15" s="1">
-        <v>10.164654</v>
+        <v>10.164654000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>1210.970000</v>
+        <v>1210.97</v>
       </c>
       <c r="S15" s="1">
-        <v>-128.951000</v>
+        <v>-128.95099999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>36602.948598</v>
+        <v>36602.948598000003</v>
       </c>
       <c r="V15" s="1">
         <v>10.167486</v>
       </c>
       <c r="W15" s="1">
-        <v>1218.380000</v>
+        <v>1218.3800000000001</v>
       </c>
       <c r="X15" s="1">
-        <v>-108.223000</v>
+        <v>-108.223</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>36613.233641</v>
+        <v>36613.233640999999</v>
       </c>
       <c r="AA15" s="1">
-        <v>10.170343</v>
+        <v>10.170343000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>1225.850000</v>
+        <v>1225.8499999999999</v>
       </c>
       <c r="AC15" s="1">
-        <v>-91.226800</v>
+        <v>-91.226799999999997</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>36623.399616</v>
+        <v>36623.399616000002</v>
       </c>
       <c r="AF15" s="1">
-        <v>10.173167</v>
+        <v>10.173166999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>1230.530000</v>
+        <v>1230.53</v>
       </c>
       <c r="AH15" s="1">
-        <v>-86.423800</v>
+        <v>-86.4238</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>36633.523460</v>
+        <v>36633.523459999997</v>
       </c>
       <c r="AK15" s="1">
         <v>10.175979</v>
       </c>
       <c r="AL15" s="1">
-        <v>1237.610000</v>
+        <v>1237.6099999999999</v>
       </c>
       <c r="AM15" s="1">
-        <v>-89.786800</v>
+        <v>-89.786799999999999</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>36643.949861</v>
+        <v>36643.949861000001</v>
       </c>
       <c r="AP15" s="1">
         <v>10.178875</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1245.420000</v>
+        <v>1245.42</v>
       </c>
       <c r="AR15" s="1">
-        <v>-101.766000</v>
+        <v>-101.76600000000001</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
         <v>36655.033163</v>
       </c>
       <c r="AU15" s="1">
-        <v>10.181954</v>
+        <v>10.181953999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>1255.230000</v>
+        <v>1255.23</v>
       </c>
       <c r="AW15" s="1">
-        <v>-121.200000</v>
+        <v>-121.2</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>36665.761462</v>
+        <v>36665.761462000002</v>
       </c>
       <c r="AZ15" s="1">
         <v>10.184934</v>
       </c>
       <c r="BA15" s="1">
-        <v>1263.550000</v>
+        <v>1263.55</v>
       </c>
       <c r="BB15" s="1">
-        <v>-138.869000</v>
+        <v>-138.869</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>36676.686850</v>
+        <v>36676.686849999998</v>
       </c>
       <c r="BE15" s="1">
-        <v>10.187969</v>
+        <v>10.187969000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1303.230000</v>
+        <v>1303.23</v>
       </c>
       <c r="BG15" s="1">
-        <v>-222.020000</v>
+        <v>-222.02</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>36687.913259</v>
+        <v>36687.913259000001</v>
       </c>
       <c r="BJ15" s="1">
         <v>10.191087</v>
       </c>
       <c r="BK15" s="1">
-        <v>1372.620000</v>
+        <v>1372.62</v>
       </c>
       <c r="BL15" s="1">
-        <v>-361.044000</v>
+        <v>-361.04399999999998</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>36698.645213</v>
+        <v>36698.645213000003</v>
       </c>
       <c r="BO15" s="1">
         <v>10.194068</v>
       </c>
       <c r="BP15" s="1">
-        <v>1487.250000</v>
+        <v>1487.25</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-588.098000</v>
+        <v>-588.09799999999996</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>36709.574573</v>
+        <v>36709.574572999998</v>
       </c>
       <c r="BT15" s="1">
         <v>10.197104</v>
       </c>
       <c r="BU15" s="1">
-        <v>1620.090000</v>
+        <v>1620.09</v>
       </c>
       <c r="BV15" s="1">
-        <v>-845.436000</v>
+        <v>-845.43600000000004</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>36720.688932</v>
+        <v>36720.688931999997</v>
       </c>
       <c r="BY15" s="1">
         <v>10.200191</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1772.880000</v>
+        <v>1772.88</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1125.300000</v>
+        <v>-1125.3</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>36733.680111</v>
+        <v>36733.680111000001</v>
       </c>
       <c r="CD15" s="1">
-        <v>10.203800</v>
+        <v>10.203799999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>2195.030000</v>
+        <v>2195.0300000000002</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1808.760000</v>
+        <v>-1808.76</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>36562.298945</v>
+        <v>36562.298945000002</v>
       </c>
       <c r="B16" s="1">
-        <v>10.156194</v>
+        <v>10.156193999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>1154.890000</v>
+        <v>1154.8900000000001</v>
       </c>
       <c r="D16" s="1">
-        <v>-259.746000</v>
+        <v>-259.74599999999998</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>36572.708022</v>
+        <v>36572.708021999999</v>
       </c>
       <c r="G16" s="1">
         <v>10.159086</v>
       </c>
       <c r="H16" s="1">
-        <v>1175.930000</v>
+        <v>1175.93</v>
       </c>
       <c r="I16" s="1">
-        <v>-217.207000</v>
+        <v>-217.20699999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>36582.894358</v>
+        <v>36582.894357999998</v>
       </c>
       <c r="L16" s="1">
         <v>10.161915</v>
       </c>
       <c r="M16" s="1">
-        <v>1203.300000</v>
+        <v>1203.3</v>
       </c>
       <c r="N16" s="1">
-        <v>-151.268000</v>
+        <v>-151.268</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>36593.172957</v>
+        <v>36593.172957000002</v>
       </c>
       <c r="Q16" s="1">
-        <v>10.164770</v>
+        <v>10.164770000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>1210.940000</v>
+        <v>1210.94</v>
       </c>
       <c r="S16" s="1">
-        <v>-128.949000</v>
+        <v>-128.94900000000001</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>36603.375131</v>
+        <v>36603.375131000001</v>
       </c>
       <c r="V16" s="1">
-        <v>10.167604</v>
+        <v>10.167604000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>1218.330000</v>
+        <v>1218.33</v>
       </c>
       <c r="X16" s="1">
-        <v>-108.160000</v>
+        <v>-108.16</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>36613.521789</v>
+        <v>36613.521788999999</v>
       </c>
       <c r="AA16" s="1">
         <v>10.170423</v>
       </c>
       <c r="AB16" s="1">
-        <v>1225.940000</v>
+        <v>1225.94</v>
       </c>
       <c r="AC16" s="1">
-        <v>-91.068400</v>
+        <v>-91.068399999999997</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>36623.682371</v>
+        <v>36623.682371000003</v>
       </c>
       <c r="AF16" s="1">
         <v>10.173245</v>
       </c>
       <c r="AG16" s="1">
-        <v>1230.570000</v>
+        <v>1230.57</v>
       </c>
       <c r="AH16" s="1">
-        <v>-86.542000</v>
+        <v>-86.542000000000002</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>36633.868713</v>
+        <v>36633.868713000003</v>
       </c>
       <c r="AK16" s="1">
-        <v>10.176075</v>
+        <v>10.176075000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>1237.610000</v>
+        <v>1237.6099999999999</v>
       </c>
       <c r="AM16" s="1">
-        <v>-89.791000</v>
+        <v>-89.790999999999997</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
         <v>36644.320904</v>
       </c>
       <c r="AP16" s="1">
-        <v>10.178978</v>
+        <v>10.178978000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1245.430000</v>
+        <v>1245.43</v>
       </c>
       <c r="AR16" s="1">
-        <v>-101.755000</v>
+        <v>-101.755</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>36655.399510</v>
+        <v>36655.399510000003</v>
       </c>
       <c r="AU16" s="1">
         <v>10.182055</v>
       </c>
       <c r="AV16" s="1">
-        <v>1255.230000</v>
+        <v>1255.23</v>
       </c>
       <c r="AW16" s="1">
-        <v>-121.213000</v>
+        <v>-121.21299999999999</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>36666.481941</v>
+        <v>36666.481940999998</v>
       </c>
       <c r="AZ16" s="1">
         <v>10.185134</v>
       </c>
       <c r="BA16" s="1">
-        <v>1263.550000</v>
+        <v>1263.55</v>
       </c>
       <c r="BB16" s="1">
-        <v>-138.863000</v>
+        <v>-138.863</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>36677.409977</v>
+        <v>36677.409977000003</v>
       </c>
       <c r="BE16" s="1">
         <v>10.188169</v>
       </c>
       <c r="BF16" s="1">
-        <v>1303.270000</v>
+        <v>1303.27</v>
       </c>
       <c r="BG16" s="1">
-        <v>-222.013000</v>
+        <v>-222.01300000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>36688.288732</v>
+        <v>36688.288732000001</v>
       </c>
       <c r="BJ16" s="1">
         <v>10.191191</v>
       </c>
       <c r="BK16" s="1">
-        <v>1372.680000</v>
+        <v>1372.68</v>
       </c>
       <c r="BL16" s="1">
-        <v>-361.064000</v>
+        <v>-361.06400000000002</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>36699.039529</v>
+        <v>36699.039529000001</v>
       </c>
       <c r="BO16" s="1">
-        <v>10.194178</v>
+        <v>10.194178000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1487.240000</v>
+        <v>1487.24</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-588.075000</v>
+        <v>-588.07500000000005</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
         <v>36709.986223</v>
       </c>
       <c r="BT16" s="1">
-        <v>10.197218</v>
+        <v>10.197217999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>1620.190000</v>
+        <v>1620.19</v>
       </c>
       <c r="BV16" s="1">
-        <v>-845.443000</v>
+        <v>-845.44299999999998</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>36721.411072</v>
+        <v>36721.411072000003</v>
       </c>
       <c r="BY16" s="1">
-        <v>10.200392</v>
+        <v>10.200392000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1773.080000</v>
+        <v>1773.08</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1125.130000</v>
+        <v>-1125.1300000000001</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>36733.914222</v>
+        <v>36733.914221999999</v>
       </c>
       <c r="CD16" s="1">
         <v>10.203865</v>
       </c>
       <c r="CE16" s="1">
-        <v>2195.250000</v>
+        <v>2195.25</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1808.400000</v>
+        <v>-1808.4</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>36562.641440</v>
+        <v>36562.641439999999</v>
       </c>
       <c r="B17" s="1">
-        <v>10.156289</v>
+        <v>10.156288999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>1155.010000</v>
+        <v>1155.01</v>
       </c>
       <c r="D17" s="1">
-        <v>-259.129000</v>
+        <v>-259.12900000000002</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>36573.053203</v>
+        <v>36573.053203000003</v>
       </c>
       <c r="G17" s="1">
         <v>10.159181</v>
       </c>
       <c r="H17" s="1">
-        <v>1176.170000</v>
+        <v>1176.17</v>
       </c>
       <c r="I17" s="1">
-        <v>-217.497000</v>
+        <v>-217.49700000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>36583.305044</v>
+        <v>36583.305044000001</v>
       </c>
       <c r="L17" s="1">
         <v>10.162029</v>
       </c>
       <c r="M17" s="1">
-        <v>1203.300000</v>
+        <v>1203.3</v>
       </c>
       <c r="N17" s="1">
-        <v>-151.138000</v>
+        <v>-151.13800000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>36593.451177</v>
+        <v>36593.451177000003</v>
       </c>
       <c r="Q17" s="1">
-        <v>10.164848</v>
+        <v>10.164847999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>1210.950000</v>
+        <v>1210.95</v>
       </c>
       <c r="S17" s="1">
-        <v>-128.817000</v>
+        <v>-128.81700000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>36603.655372</v>
+        <v>36603.655372000001</v>
       </c>
       <c r="V17" s="1">
-        <v>10.167682</v>
+        <v>10.167681999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>1218.310000</v>
+        <v>1218.31</v>
       </c>
       <c r="X17" s="1">
-        <v>-108.245000</v>
+        <v>-108.245</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>36613.870973</v>
+        <v>36613.870972999997</v>
       </c>
       <c r="AA17" s="1">
-        <v>10.170520</v>
+        <v>10.17052</v>
       </c>
       <c r="AB17" s="1">
-        <v>1225.950000</v>
+        <v>1225.95</v>
       </c>
       <c r="AC17" s="1">
-        <v>-91.150000</v>
+        <v>-91.15</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>36624.024116</v>
+        <v>36624.024116000001</v>
       </c>
       <c r="AF17" s="1">
-        <v>10.173340</v>
+        <v>10.17334</v>
       </c>
       <c r="AG17" s="1">
-        <v>1230.510000</v>
+        <v>1230.51</v>
       </c>
       <c r="AH17" s="1">
-        <v>-86.512800</v>
+        <v>-86.512799999999999</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>36634.219347</v>
+        <v>36634.219346999998</v>
       </c>
       <c r="AK17" s="1">
-        <v>10.176172</v>
+        <v>10.176171999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>1237.600000</v>
+        <v>1237.5999999999999</v>
       </c>
       <c r="AM17" s="1">
-        <v>-89.781200</v>
+        <v>-89.781199999999998</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>36645.042051</v>
+        <v>36645.042050999997</v>
       </c>
       <c r="AP17" s="1">
         <v>10.179178</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1245.400000</v>
+        <v>1245.4000000000001</v>
       </c>
       <c r="AR17" s="1">
-        <v>-101.768000</v>
+        <v>-101.768</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>36656.126645</v>
+        <v>36656.126644999997</v>
       </c>
       <c r="AU17" s="1">
         <v>10.182257</v>
       </c>
       <c r="AV17" s="1">
-        <v>1255.250000</v>
+        <v>1255.25</v>
       </c>
       <c r="AW17" s="1">
-        <v>-121.192000</v>
+        <v>-121.19199999999999</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
         <v>36666.835799</v>
       </c>
       <c r="AZ17" s="1">
-        <v>10.185232</v>
+        <v>10.185231999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1263.550000</v>
+        <v>1263.55</v>
       </c>
       <c r="BB17" s="1">
-        <v>-138.911000</v>
+        <v>-138.911</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>36677.770111</v>
+        <v>36677.770110999998</v>
       </c>
       <c r="BE17" s="1">
         <v>10.188269</v>
       </c>
       <c r="BF17" s="1">
-        <v>1303.260000</v>
+        <v>1303.26</v>
       </c>
       <c r="BG17" s="1">
-        <v>-222.044000</v>
+        <v>-222.04400000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>36688.663467</v>
+        <v>36688.663466999998</v>
       </c>
       <c r="BJ17" s="1">
         <v>10.191295</v>
       </c>
       <c r="BK17" s="1">
-        <v>1372.630000</v>
+        <v>1372.63</v>
       </c>
       <c r="BL17" s="1">
-        <v>-361.105000</v>
+        <v>-361.10500000000002</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>36699.779079</v>
@@ -4531,90 +4947,90 @@
         <v>10.194383</v>
       </c>
       <c r="BP17" s="1">
-        <v>1487.210000</v>
+        <v>1487.21</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-588.106000</v>
+        <v>-588.10599999999999</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>36710.724765</v>
+        <v>36710.724764999999</v>
       </c>
       <c r="BT17" s="1">
         <v>10.197424</v>
       </c>
       <c r="BU17" s="1">
-        <v>1619.920000</v>
+        <v>1619.92</v>
       </c>
       <c r="BV17" s="1">
-        <v>-845.462000</v>
+        <v>-845.46199999999999</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>36721.530607</v>
+        <v>36721.530607000001</v>
       </c>
       <c r="BY17" s="1">
-        <v>10.200425</v>
+        <v>10.200424999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1772.840000</v>
+        <v>1772.84</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1125.070000</v>
+        <v>-1125.07</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>36734.433533</v>
+        <v>36734.433533000003</v>
       </c>
       <c r="CD17" s="1">
-        <v>10.204009</v>
+        <v>10.204008999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>2196.100000</v>
+        <v>2196.1</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1806.960000</v>
+        <v>-1806.96</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>36563.065302</v>
+        <v>36563.065302000003</v>
       </c>
       <c r="B18" s="1">
         <v>10.156407</v>
       </c>
       <c r="C18" s="1">
-        <v>1154.890000</v>
+        <v>1154.8900000000001</v>
       </c>
       <c r="D18" s="1">
-        <v>-259.541000</v>
+        <v>-259.541</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>36573.477283</v>
       </c>
       <c r="G18" s="1">
-        <v>10.159299</v>
+        <v>10.159299000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>1175.820000</v>
+        <v>1175.82</v>
       </c>
       <c r="I18" s="1">
-        <v>-217.262000</v>
+        <v>-217.262</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>36583.602649</v>
@@ -4623,43 +5039,43 @@
         <v>10.162112</v>
       </c>
       <c r="M18" s="1">
-        <v>1203.740000</v>
+        <v>1203.74</v>
       </c>
       <c r="N18" s="1">
-        <v>-151.237000</v>
+        <v>-151.23699999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>36593.801379</v>
+        <v>36593.801378999997</v>
       </c>
       <c r="Q18" s="1">
-        <v>10.164945</v>
+        <v>10.164944999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>1210.970000</v>
+        <v>1210.97</v>
       </c>
       <c r="S18" s="1">
-        <v>-128.904000</v>
+        <v>-128.904</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>36603.996158</v>
+        <v>36603.996158000002</v>
       </c>
       <c r="V18" s="1">
-        <v>10.167777</v>
+        <v>10.167776999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>1218.380000</v>
+        <v>1218.3800000000001</v>
       </c>
       <c r="X18" s="1">
-        <v>-108.254000</v>
+        <v>-108.254</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <v>36614.221178</v>
@@ -4668,118 +5084,118 @@
         <v>10.170617</v>
       </c>
       <c r="AB18" s="1">
-        <v>1225.860000</v>
+        <v>1225.8599999999999</v>
       </c>
       <c r="AC18" s="1">
-        <v>-91.299400</v>
+        <v>-91.299400000000006</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>36624.367808</v>
+        <v>36624.367808000003</v>
       </c>
       <c r="AF18" s="1">
-        <v>10.173436</v>
+        <v>10.173436000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>1230.530000</v>
+        <v>1230.53</v>
       </c>
       <c r="AH18" s="1">
-        <v>-86.530300</v>
+        <v>-86.530299999999997</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>36634.917250</v>
+        <v>36634.917249999999</v>
       </c>
       <c r="AK18" s="1">
         <v>10.176366</v>
       </c>
       <c r="AL18" s="1">
-        <v>1237.610000</v>
+        <v>1237.6099999999999</v>
       </c>
       <c r="AM18" s="1">
-        <v>-89.829000</v>
+        <v>-89.828999999999994</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>36645.418021</v>
+        <v>36645.418020999998</v>
       </c>
       <c r="AP18" s="1">
         <v>10.179283</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1245.390000</v>
+        <v>1245.3900000000001</v>
       </c>
       <c r="AR18" s="1">
-        <v>-101.738000</v>
+        <v>-101.738</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>36656.516303</v>
+        <v>36656.516302999997</v>
       </c>
       <c r="AU18" s="1">
         <v>10.182366</v>
       </c>
       <c r="AV18" s="1">
-        <v>1255.230000</v>
+        <v>1255.23</v>
       </c>
       <c r="AW18" s="1">
-        <v>-121.219000</v>
+        <v>-121.21899999999999</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>36667.195862</v>
       </c>
       <c r="AZ18" s="1">
-        <v>10.185332</v>
+        <v>10.185332000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1263.560000</v>
+        <v>1263.56</v>
       </c>
       <c r="BB18" s="1">
-        <v>-138.894000</v>
+        <v>-138.89400000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>36678.133143</v>
+        <v>36678.133142999999</v>
       </c>
       <c r="BE18" s="1">
-        <v>10.188370</v>
+        <v>10.188370000000001</v>
       </c>
       <c r="BF18" s="1">
-        <v>1303.220000</v>
+        <v>1303.22</v>
       </c>
       <c r="BG18" s="1">
-        <v>-222.041000</v>
+        <v>-222.041</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>36689.342235</v>
+        <v>36689.342234999996</v>
       </c>
       <c r="BJ18" s="1">
-        <v>10.191484</v>
+        <v>10.191484000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1372.690000</v>
+        <v>1372.69</v>
       </c>
       <c r="BL18" s="1">
-        <v>-361.032000</v>
+        <v>-361.03199999999998</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
         <v>36699.888668</v>
@@ -4788,240 +5204,240 @@
         <v>10.194414</v>
       </c>
       <c r="BP18" s="1">
-        <v>1487.240000</v>
+        <v>1487.24</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-588.092000</v>
+        <v>-588.09199999999998</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>36710.844809</v>
+        <v>36710.844809000002</v>
       </c>
       <c r="BT18" s="1">
         <v>10.197457</v>
       </c>
       <c r="BU18" s="1">
-        <v>1619.870000</v>
+        <v>1619.87</v>
       </c>
       <c r="BV18" s="1">
-        <v>-845.536000</v>
+        <v>-845.53599999999994</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>36721.968113</v>
+        <v>36721.968113000003</v>
       </c>
       <c r="BY18" s="1">
         <v>10.200547</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1772.980000</v>
+        <v>1772.98</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1125.180000</v>
+        <v>-1125.18</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>36734.951854</v>
+        <v>36734.951853999999</v>
       </c>
       <c r="CD18" s="1">
         <v>10.204153</v>
       </c>
       <c r="CE18" s="1">
-        <v>2196.230000</v>
+        <v>2196.23</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1808.420000</v>
+        <v>-1808.42</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>36563.335087</v>
+        <v>36563.335086999999</v>
       </c>
       <c r="B19" s="1">
         <v>10.156482</v>
       </c>
       <c r="C19" s="1">
-        <v>1154.530000</v>
+        <v>1154.53</v>
       </c>
       <c r="D19" s="1">
-        <v>-259.397000</v>
+        <v>-259.39699999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>36573.749092</v>
+        <v>36573.749091999998</v>
       </c>
       <c r="G19" s="1">
-        <v>10.159375</v>
+        <v>10.159375000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>1176.370000</v>
+        <v>1176.3699999999999</v>
       </c>
       <c r="I19" s="1">
-        <v>-217.550000</v>
+        <v>-217.55</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>36583.945876</v>
+        <v>36583.945875999998</v>
       </c>
       <c r="L19" s="1">
         <v>10.162207</v>
       </c>
       <c r="M19" s="1">
-        <v>1203.530000</v>
+        <v>1203.53</v>
       </c>
       <c r="N19" s="1">
-        <v>-151.207000</v>
+        <v>-151.20699999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>36594.148552</v>
+        <v>36594.148551999999</v>
       </c>
       <c r="Q19" s="1">
         <v>10.165041</v>
       </c>
       <c r="R19" s="1">
-        <v>1211.040000</v>
+        <v>1211.04</v>
       </c>
       <c r="S19" s="1">
-        <v>-128.920000</v>
+        <v>-128.91999999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>36604.341337</v>
+        <v>36604.341336999998</v>
       </c>
       <c r="V19" s="1">
         <v>10.167873</v>
       </c>
       <c r="W19" s="1">
-        <v>1218.350000</v>
+        <v>1218.3499999999999</v>
       </c>
       <c r="X19" s="1">
-        <v>-108.150000</v>
+        <v>-108.15</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>36614.913591</v>
+        <v>36614.913590999997</v>
       </c>
       <c r="AA19" s="1">
         <v>10.170809</v>
       </c>
       <c r="AB19" s="1">
-        <v>1226.090000</v>
+        <v>1226.0899999999999</v>
       </c>
       <c r="AC19" s="1">
-        <v>-90.919600</v>
+        <v>-90.919600000000003</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>36625.054767</v>
+        <v>36625.054767000001</v>
       </c>
       <c r="AF19" s="1">
-        <v>10.173626</v>
+        <v>10.173626000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>1230.560000</v>
+        <v>1230.56</v>
       </c>
       <c r="AH19" s="1">
-        <v>-86.521400</v>
+        <v>-86.5214</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>36635.266898</v>
+        <v>36635.266898000002</v>
       </c>
       <c r="AK19" s="1">
         <v>10.176463</v>
       </c>
       <c r="AL19" s="1">
-        <v>1237.630000</v>
+        <v>1237.6300000000001</v>
       </c>
       <c r="AM19" s="1">
-        <v>-89.823100</v>
+        <v>-89.823099999999997</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>36645.788532</v>
+        <v>36645.788531999999</v>
       </c>
       <c r="AP19" s="1">
-        <v>10.179386</v>
+        <v>10.179385999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1245.420000</v>
+        <v>1245.42</v>
       </c>
       <c r="AR19" s="1">
-        <v>-101.721000</v>
+        <v>-101.721</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>36656.882052</v>
+        <v>36656.882052000001</v>
       </c>
       <c r="AU19" s="1">
-        <v>10.182467</v>
+        <v>10.182467000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>1255.240000</v>
+        <v>1255.24</v>
       </c>
       <c r="AW19" s="1">
-        <v>-121.203000</v>
+        <v>-121.203</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>36667.867941</v>
+        <v>36667.867940999997</v>
       </c>
       <c r="AZ19" s="1">
-        <v>10.185519</v>
+        <v>10.185518999999999</v>
       </c>
       <c r="BA19" s="1">
-        <v>1263.570000</v>
+        <v>1263.57</v>
       </c>
       <c r="BB19" s="1">
-        <v>-138.867000</v>
+        <v>-138.86699999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>36678.938685</v>
+        <v>36678.938685000001</v>
       </c>
       <c r="BE19" s="1">
         <v>10.188594</v>
       </c>
       <c r="BF19" s="1">
-        <v>1303.250000</v>
+        <v>1303.25</v>
       </c>
       <c r="BG19" s="1">
-        <v>-222.025000</v>
+        <v>-222.02500000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>36689.792104</v>
@@ -5030,76 +5446,76 @@
         <v>10.191609</v>
       </c>
       <c r="BK19" s="1">
-        <v>1372.670000</v>
+        <v>1372.67</v>
       </c>
       <c r="BL19" s="1">
-        <v>-361.078000</v>
+        <v>-361.07799999999997</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>36700.284010</v>
+        <v>36700.284010000003</v>
       </c>
       <c r="BO19" s="1">
         <v>10.194523</v>
       </c>
       <c r="BP19" s="1">
-        <v>1487.190000</v>
+        <v>1487.19</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-588.123000</v>
+        <v>-588.12300000000005</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>36711.283756</v>
+        <v>36711.283755999997</v>
       </c>
       <c r="BT19" s="1">
-        <v>10.197579</v>
+        <v>10.197578999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>1619.760000</v>
+        <v>1619.76</v>
       </c>
       <c r="BV19" s="1">
-        <v>-845.530000</v>
+        <v>-845.53</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>36722.426879</v>
+        <v>36722.426878999999</v>
       </c>
       <c r="BY19" s="1">
-        <v>10.200674</v>
+        <v>10.200673999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1772.930000</v>
+        <v>1772.93</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1125.250000</v>
+        <v>-1125.25</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>36735.497452</v>
+        <v>36735.497452000003</v>
       </c>
       <c r="CD19" s="1">
         <v>10.204305</v>
       </c>
       <c r="CE19" s="1">
-        <v>2194.810000</v>
+        <v>2194.81</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1809.010000</v>
+        <v>-1809.01</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
         <v>36563.678816</v>
       </c>
@@ -5107,270 +5523,270 @@
         <v>10.156577</v>
       </c>
       <c r="C20" s="1">
-        <v>1154.470000</v>
+        <v>1154.47</v>
       </c>
       <c r="D20" s="1">
-        <v>-259.696000</v>
+        <v>-259.69600000000003</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>36574.107698</v>
       </c>
       <c r="G20" s="1">
-        <v>10.159474</v>
+        <v>10.159473999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>1176.160000</v>
+        <v>1176.1600000000001</v>
       </c>
       <c r="I20" s="1">
-        <v>-216.957000</v>
+        <v>-216.95699999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
         <v>36584.294533</v>
       </c>
       <c r="L20" s="1">
-        <v>10.162304</v>
+        <v>10.162304000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>1203.390000</v>
+        <v>1203.3900000000001</v>
       </c>
       <c r="N20" s="1">
-        <v>-151.804000</v>
+        <v>-151.804</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>36594.846422</v>
+        <v>36594.846422000002</v>
       </c>
       <c r="Q20" s="1">
-        <v>10.165235</v>
+        <v>10.165234999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>1211.050000</v>
+        <v>1211.05</v>
       </c>
       <c r="S20" s="1">
-        <v>-129.048000</v>
+        <v>-129.048</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>36605.028792</v>
+        <v>36605.028791999997</v>
       </c>
       <c r="V20" s="1">
-        <v>10.168064</v>
+        <v>10.168063999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>1218.260000</v>
+        <v>1218.26</v>
       </c>
       <c r="X20" s="1">
-        <v>-108.235000</v>
+        <v>-108.235</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>36615.265265</v>
+        <v>36615.265265000002</v>
       </c>
       <c r="AA20" s="1">
         <v>10.170907</v>
       </c>
       <c r="AB20" s="1">
-        <v>1225.880000</v>
+        <v>1225.8800000000001</v>
       </c>
       <c r="AC20" s="1">
-        <v>-91.043200</v>
+        <v>-91.043199999999999</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>36625.398990</v>
+        <v>36625.398990000002</v>
       </c>
       <c r="AF20" s="1">
         <v>10.173722</v>
       </c>
       <c r="AG20" s="1">
-        <v>1230.540000</v>
+        <v>1230.54</v>
       </c>
       <c r="AH20" s="1">
-        <v>-86.551600</v>
+        <v>-86.551599999999993</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>36635.615088</v>
+        <v>36635.615087999999</v>
       </c>
       <c r="AK20" s="1">
-        <v>10.176560</v>
+        <v>10.17656</v>
       </c>
       <c r="AL20" s="1">
-        <v>1237.610000</v>
+        <v>1237.6099999999999</v>
       </c>
       <c r="AM20" s="1">
-        <v>-89.793400</v>
+        <v>-89.793400000000005</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>36646.457666</v>
+        <v>36646.457666000002</v>
       </c>
       <c r="AP20" s="1">
         <v>10.179572</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1245.420000</v>
+        <v>1245.42</v>
       </c>
       <c r="AR20" s="1">
-        <v>-101.733000</v>
+        <v>-101.733</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>36657.549524</v>
+        <v>36657.549524000002</v>
       </c>
       <c r="AU20" s="1">
         <v>10.182653</v>
       </c>
       <c r="AV20" s="1">
-        <v>1255.240000</v>
+        <v>1255.24</v>
       </c>
       <c r="AW20" s="1">
-        <v>-121.218000</v>
+        <v>-121.218</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>36668.273700</v>
+        <v>36668.273699999998</v>
       </c>
       <c r="AZ20" s="1">
         <v>10.185632</v>
       </c>
       <c r="BA20" s="1">
-        <v>1263.560000</v>
+        <v>1263.56</v>
       </c>
       <c r="BB20" s="1">
-        <v>-138.896000</v>
+        <v>-138.89599999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>36679.252118</v>
+        <v>36679.252117999997</v>
       </c>
       <c r="BE20" s="1">
-        <v>10.188681</v>
+        <v>10.188681000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1303.250000</v>
+        <v>1303.25</v>
       </c>
       <c r="BG20" s="1">
-        <v>-222.006000</v>
+        <v>-222.006</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>36690.172040</v>
+        <v>36690.172039999998</v>
       </c>
       <c r="BJ20" s="1">
-        <v>10.191714</v>
+        <v>10.191713999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1372.660000</v>
+        <v>1372.66</v>
       </c>
       <c r="BL20" s="1">
-        <v>-361.113000</v>
+        <v>-361.113</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>36700.705611</v>
+        <v>36700.705610999998</v>
       </c>
       <c r="BO20" s="1">
-        <v>10.194640</v>
+        <v>10.19464</v>
       </c>
       <c r="BP20" s="1">
-        <v>1487.200000</v>
+        <v>1487.2</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-588.059000</v>
+        <v>-588.05899999999997</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>36711.695932</v>
+        <v>36711.695932000002</v>
       </c>
       <c r="BT20" s="1">
-        <v>10.197693</v>
+        <v>10.197692999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>1619.730000</v>
+        <v>1619.73</v>
       </c>
       <c r="BV20" s="1">
-        <v>-845.471000</v>
+        <v>-845.471</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>36722.873309</v>
+        <v>36722.873309000002</v>
       </c>
       <c r="BY20" s="1">
-        <v>10.200798</v>
+        <v>10.200798000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1772.990000</v>
+        <v>1772.99</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1125.080000</v>
+        <v>-1125.08</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>36736.034621</v>
+        <v>36736.034620999999</v>
       </c>
       <c r="CD20" s="1">
         <v>10.204454</v>
       </c>
       <c r="CE20" s="1">
-        <v>2196.530000</v>
+        <v>2196.5300000000002</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1807.600000</v>
+        <v>-1807.6</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>36564.021552</v>
+        <v>36564.021551999998</v>
       </c>
       <c r="B21" s="1">
         <v>10.156673</v>
       </c>
       <c r="C21" s="1">
-        <v>1154.610000</v>
+        <v>1154.6099999999999</v>
       </c>
       <c r="D21" s="1">
-        <v>-259.668000</v>
+        <v>-259.66800000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>36574.787246</v>
@@ -5379,43 +5795,43 @@
         <v>10.159663</v>
       </c>
       <c r="H21" s="1">
-        <v>1176.360000</v>
+        <v>1176.3599999999999</v>
       </c>
       <c r="I21" s="1">
-        <v>-217.604000</v>
+        <v>-217.60400000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>36584.986974</v>
+        <v>36584.986973999999</v>
       </c>
       <c r="L21" s="1">
-        <v>10.162496</v>
+        <v>10.162496000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>1203.370000</v>
+        <v>1203.3699999999999</v>
       </c>
       <c r="N21" s="1">
-        <v>-151.220000</v>
+        <v>-151.22</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>36595.194118</v>
+        <v>36595.194117999999</v>
       </c>
       <c r="Q21" s="1">
-        <v>10.165332</v>
+        <v>10.165331999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>1210.910000</v>
+        <v>1210.9100000000001</v>
       </c>
       <c r="S21" s="1">
-        <v>-129.057000</v>
+        <v>-129.05699999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>36605.368057</v>
@@ -5424,103 +5840,103 @@
         <v>10.168158</v>
       </c>
       <c r="W21" s="1">
-        <v>1218.340000</v>
+        <v>1218.3399999999999</v>
       </c>
       <c r="X21" s="1">
-        <v>-108.326000</v>
+        <v>-108.32599999999999</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>36615.613451</v>
+        <v>36615.613450999997</v>
       </c>
       <c r="AA21" s="1">
         <v>10.171004</v>
       </c>
       <c r="AB21" s="1">
-        <v>1226.040000</v>
+        <v>1226.04</v>
       </c>
       <c r="AC21" s="1">
-        <v>-91.048800</v>
+        <v>-91.0488</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>36625.742748</v>
+        <v>36625.742747999997</v>
       </c>
       <c r="AF21" s="1">
         <v>10.173817</v>
       </c>
       <c r="AG21" s="1">
-        <v>1230.580000</v>
+        <v>1230.58</v>
       </c>
       <c r="AH21" s="1">
-        <v>-86.482600</v>
+        <v>-86.482600000000005</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>36636.273775</v>
+        <v>36636.273775000001</v>
       </c>
       <c r="AK21" s="1">
         <v>10.176743</v>
       </c>
       <c r="AL21" s="1">
-        <v>1237.640000</v>
+        <v>1237.6400000000001</v>
       </c>
       <c r="AM21" s="1">
-        <v>-89.802200</v>
+        <v>-89.802199999999999</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>36646.899074</v>
+        <v>36646.899074000001</v>
       </c>
       <c r="AP21" s="1">
         <v>10.179694</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1245.430000</v>
+        <v>1245.43</v>
       </c>
       <c r="AR21" s="1">
-        <v>-101.724000</v>
+        <v>-101.724</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>36658.007518</v>
+        <v>36658.007517999999</v>
       </c>
       <c r="AU21" s="1">
-        <v>10.182780</v>
+        <v>10.182779999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>1255.240000</v>
+        <v>1255.24</v>
       </c>
       <c r="AW21" s="1">
-        <v>-121.223000</v>
+        <v>-121.223</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>36668.659092</v>
+        <v>36668.659092000002</v>
       </c>
       <c r="AZ21" s="1">
         <v>10.185739</v>
       </c>
       <c r="BA21" s="1">
-        <v>1263.580000</v>
+        <v>1263.58</v>
       </c>
       <c r="BB21" s="1">
-        <v>-138.893000</v>
+        <v>-138.893</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
         <v>36679.615199</v>
@@ -5529,13 +5945,13 @@
         <v>10.188782</v>
       </c>
       <c r="BF21" s="1">
-        <v>1303.270000</v>
+        <v>1303.27</v>
       </c>
       <c r="BG21" s="1">
-        <v>-222.019000</v>
+        <v>-222.01900000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>36690.543544</v>
@@ -5544,165 +5960,165 @@
         <v>10.191818</v>
       </c>
       <c r="BK21" s="1">
-        <v>1372.650000</v>
+        <v>1372.65</v>
       </c>
       <c r="BL21" s="1">
-        <v>-361.058000</v>
+        <v>-361.05799999999999</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>36701.129163</v>
+        <v>36701.129162999998</v>
       </c>
       <c r="BO21" s="1">
         <v>10.194758</v>
       </c>
       <c r="BP21" s="1">
-        <v>1487.230000</v>
+        <v>1487.23</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-588.095000</v>
+        <v>-588.09500000000003</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>36712.123489</v>
+        <v>36712.123488999998</v>
       </c>
       <c r="BT21" s="1">
-        <v>10.197812</v>
+        <v>10.197812000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>1619.570000</v>
+        <v>1619.57</v>
       </c>
       <c r="BV21" s="1">
-        <v>-845.564000</v>
+        <v>-845.56399999999996</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>36723.328604</v>
+        <v>36723.328604000002</v>
       </c>
       <c r="BY21" s="1">
         <v>10.200925</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1772.790000</v>
+        <v>1772.79</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1124.950000</v>
+        <v>-1124.95</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
         <v>36736.551948</v>
       </c>
       <c r="CD21" s="1">
-        <v>10.204598</v>
+        <v>10.204598000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>2194.120000</v>
+        <v>2194.12</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1806.670000</v>
+        <v>-1806.67</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>36564.704542</v>
+        <v>36564.704541999999</v>
       </c>
       <c r="B22" s="1">
         <v>10.156862</v>
       </c>
       <c r="C22" s="1">
-        <v>1154.720000</v>
+        <v>1154.72</v>
       </c>
       <c r="D22" s="1">
-        <v>-259.606000</v>
+        <v>-259.60599999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>36575.139376</v>
+        <v>36575.139375999999</v>
       </c>
       <c r="G22" s="1">
         <v>10.159761</v>
       </c>
       <c r="H22" s="1">
-        <v>1176.130000</v>
+        <v>1176.1300000000001</v>
       </c>
       <c r="I22" s="1">
-        <v>-217.774000</v>
+        <v>-217.774</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>36585.329186</v>
+        <v>36585.329186000003</v>
       </c>
       <c r="L22" s="1">
-        <v>10.162591</v>
+        <v>10.162591000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>1203.610000</v>
+        <v>1203.6099999999999</v>
       </c>
       <c r="N22" s="1">
-        <v>-151.467000</v>
+        <v>-151.46700000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>36595.544294</v>
+        <v>36595.544293999999</v>
       </c>
       <c r="Q22" s="1">
         <v>10.165429</v>
       </c>
       <c r="R22" s="1">
-        <v>1210.960000</v>
+        <v>1210.96</v>
       </c>
       <c r="S22" s="1">
-        <v>-129.028000</v>
+        <v>-129.02799999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>36605.712807</v>
+        <v>36605.712807000004</v>
       </c>
       <c r="V22" s="1">
-        <v>10.168254</v>
+        <v>10.168253999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>1218.340000</v>
+        <v>1218.3399999999999</v>
       </c>
       <c r="X22" s="1">
-        <v>-108.218000</v>
+        <v>-108.218</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>36616.270617</v>
+        <v>36616.270617000002</v>
       </c>
       <c r="AA22" s="1">
-        <v>10.171186</v>
+        <v>10.171186000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>1225.960000</v>
+        <v>1225.96</v>
       </c>
       <c r="AC22" s="1">
-        <v>-91.074600</v>
+        <v>-91.074600000000004</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
         <v>36626.477325</v>
@@ -5711,73 +6127,73 @@
         <v>10.174021</v>
       </c>
       <c r="AG22" s="1">
-        <v>1230.590000</v>
+        <v>1230.5899999999999</v>
       </c>
       <c r="AH22" s="1">
-        <v>-86.526700</v>
+        <v>-86.526700000000005</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>36636.658670</v>
+        <v>36636.658669999997</v>
       </c>
       <c r="AK22" s="1">
-        <v>10.176850</v>
+        <v>10.17685</v>
       </c>
       <c r="AL22" s="1">
-        <v>1237.580000</v>
+        <v>1237.58</v>
       </c>
       <c r="AM22" s="1">
-        <v>-89.795700</v>
+        <v>-89.795699999999997</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>36647.257712</v>
+        <v>36647.257711999999</v>
       </c>
       <c r="AP22" s="1">
-        <v>10.179794</v>
+        <v>10.179793999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1245.420000</v>
+        <v>1245.42</v>
       </c>
       <c r="AR22" s="1">
-        <v>-101.717000</v>
+        <v>-101.717</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>36658.374018</v>
+        <v>36658.374018000002</v>
       </c>
       <c r="AU22" s="1">
-        <v>10.182882</v>
+        <v>10.182881999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>1255.250000</v>
+        <v>1255.25</v>
       </c>
       <c r="AW22" s="1">
-        <v>-121.191000</v>
+        <v>-121.191</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>36669.016676</v>
+        <v>36669.016675999999</v>
       </c>
       <c r="AZ22" s="1">
         <v>10.185838</v>
       </c>
       <c r="BA22" s="1">
-        <v>1263.540000</v>
+        <v>1263.54</v>
       </c>
       <c r="BB22" s="1">
-        <v>-138.890000</v>
+        <v>-138.88999999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>36680.031829</v>
@@ -5786,135 +6202,135 @@
         <v>10.188898</v>
       </c>
       <c r="BF22" s="1">
-        <v>1303.220000</v>
+        <v>1303.22</v>
       </c>
       <c r="BG22" s="1">
-        <v>-222.003000</v>
+        <v>-222.00299999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>36690.961175</v>
+        <v>36690.961174999997</v>
       </c>
       <c r="BJ22" s="1">
         <v>10.191934</v>
       </c>
       <c r="BK22" s="1">
-        <v>1372.670000</v>
+        <v>1372.67</v>
       </c>
       <c r="BL22" s="1">
-        <v>-361.064000</v>
+        <v>-361.06400000000002</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>36701.522489</v>
+        <v>36701.522489000003</v>
       </c>
       <c r="BO22" s="1">
         <v>10.194867</v>
       </c>
       <c r="BP22" s="1">
-        <v>1487.190000</v>
+        <v>1487.19</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-588.046000</v>
+        <v>-588.04600000000005</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>36712.550539</v>
+        <v>36712.550539000003</v>
       </c>
       <c r="BT22" s="1">
-        <v>10.197931</v>
+        <v>10.197931000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>1619.530000</v>
+        <v>1619.53</v>
       </c>
       <c r="BV22" s="1">
-        <v>-845.469000</v>
+        <v>-845.46900000000005</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
         <v>36723.778973</v>
       </c>
       <c r="BY22" s="1">
-        <v>10.201050</v>
+        <v>10.20105</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1772.880000</v>
+        <v>1772.88</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1125.240000</v>
+        <v>-1125.24</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>36737.095594</v>
+        <v>36737.095593999999</v>
       </c>
       <c r="CD22" s="1">
         <v>10.204749</v>
       </c>
       <c r="CE22" s="1">
-        <v>2194.940000</v>
+        <v>2194.94</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1808.880000</v>
+        <v>-1808.88</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>36565.048797</v>
+        <v>36565.048797000003</v>
       </c>
       <c r="B23" s="1">
-        <v>10.156958</v>
+        <v>10.156957999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>1154.500000</v>
+        <v>1154.5</v>
       </c>
       <c r="D23" s="1">
-        <v>-259.754000</v>
+        <v>-259.75400000000002</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>36575.486079</v>
+        <v>36575.486079000002</v>
       </c>
       <c r="G23" s="1">
-        <v>10.159857</v>
+        <v>10.159857000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>1176.010000</v>
+        <v>1176.01</v>
       </c>
       <c r="I23" s="1">
-        <v>-217.355000</v>
+        <v>-217.35499999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>36585.678370</v>
+        <v>36585.678370000001</v>
       </c>
       <c r="L23" s="1">
-        <v>10.162688</v>
+        <v>10.162687999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>1203.620000</v>
+        <v>1203.6199999999999</v>
       </c>
       <c r="N23" s="1">
-        <v>-151.356000</v>
+        <v>-151.35599999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>36596.200996</v>
@@ -5923,981 +6339,982 @@
         <v>10.165611</v>
       </c>
       <c r="R23" s="1">
-        <v>1211.050000</v>
+        <v>1211.05</v>
       </c>
       <c r="S23" s="1">
-        <v>-129.130000</v>
+        <v>-129.13</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>36606.365512</v>
+        <v>36606.365511999997</v>
       </c>
       <c r="V23" s="1">
-        <v>10.168435</v>
+        <v>10.168435000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>1218.450000</v>
+        <v>1218.45</v>
       </c>
       <c r="X23" s="1">
-        <v>-108.305000</v>
+        <v>-108.30500000000001</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>36616.659977</v>
+        <v>36616.659977000003</v>
       </c>
       <c r="AA23" s="1">
         <v>10.171294</v>
       </c>
       <c r="AB23" s="1">
-        <v>1225.770000</v>
+        <v>1225.77</v>
       </c>
       <c r="AC23" s="1">
-        <v>-91.065400</v>
+        <v>-91.065399999999997</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>36626.770428</v>
+        <v>36626.770428000003</v>
       </c>
       <c r="AF23" s="1">
-        <v>10.174103</v>
+        <v>10.174103000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>1230.580000</v>
+        <v>1230.58</v>
       </c>
       <c r="AH23" s="1">
-        <v>-86.495700</v>
+        <v>-86.495699999999999</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>36637.009344</v>
+        <v>36637.009343999998</v>
       </c>
       <c r="AK23" s="1">
         <v>10.176947</v>
       </c>
       <c r="AL23" s="1">
-        <v>1237.590000</v>
+        <v>1237.5899999999999</v>
       </c>
       <c r="AM23" s="1">
-        <v>-89.804300</v>
+        <v>-89.804299999999998</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>36647.614304</v>
+        <v>36647.614304000002</v>
       </c>
       <c r="AP23" s="1">
         <v>10.179893</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1245.440000</v>
+        <v>1245.44</v>
       </c>
       <c r="AR23" s="1">
-        <v>-101.739000</v>
+        <v>-101.739</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>36658.739570</v>
+        <v>36658.739569999998</v>
       </c>
       <c r="AU23" s="1">
         <v>10.182983</v>
       </c>
       <c r="AV23" s="1">
-        <v>1255.240000</v>
+        <v>1255.24</v>
       </c>
       <c r="AW23" s="1">
-        <v>-121.232000</v>
+        <v>-121.232</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>36669.436291</v>
+        <v>36669.436290999998</v>
       </c>
       <c r="AZ23" s="1">
         <v>10.185955</v>
       </c>
       <c r="BA23" s="1">
-        <v>1263.570000</v>
+        <v>1263.57</v>
       </c>
       <c r="BB23" s="1">
-        <v>-138.887000</v>
+        <v>-138.887</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>36680.336870</v>
+        <v>36680.336869999999</v>
       </c>
       <c r="BE23" s="1">
-        <v>10.188982</v>
+        <v>10.188981999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1303.260000</v>
+        <v>1303.26</v>
       </c>
       <c r="BG23" s="1">
-        <v>-222.049000</v>
+        <v>-222.04900000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>36691.319288</v>
+        <v>36691.319287999999</v>
       </c>
       <c r="BJ23" s="1">
         <v>10.192033</v>
       </c>
       <c r="BK23" s="1">
-        <v>1372.670000</v>
+        <v>1372.67</v>
       </c>
       <c r="BL23" s="1">
-        <v>-361.103000</v>
+        <v>-361.10300000000001</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>36701.922264</v>
+        <v>36701.922264000001</v>
       </c>
       <c r="BO23" s="1">
-        <v>10.194978</v>
+        <v>10.194978000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1487.230000</v>
+        <v>1487.23</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-588.128000</v>
+        <v>-588.12800000000004</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>36712.964698</v>
+        <v>36712.964698000003</v>
       </c>
       <c r="BT23" s="1">
         <v>10.198046</v>
       </c>
       <c r="BU23" s="1">
-        <v>1619.430000</v>
+        <v>1619.43</v>
       </c>
       <c r="BV23" s="1">
-        <v>-845.390000</v>
+        <v>-845.39</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>36724.234299</v>
+        <v>36724.234299000003</v>
       </c>
       <c r="BY23" s="1">
         <v>10.201176</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1772.920000</v>
+        <v>1772.92</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1125.230000</v>
+        <v>-1125.23</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>36737.632761</v>
+        <v>36737.632761000001</v>
       </c>
       <c r="CD23" s="1">
         <v>10.204898</v>
       </c>
       <c r="CE23" s="1">
-        <v>2195.460000</v>
+        <v>2195.46</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1806.600000</v>
+        <v>-1806.6</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>36565.389022</v>
+        <v>36565.389022000003</v>
       </c>
       <c r="B24" s="1">
-        <v>10.157053</v>
+        <v>10.157052999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>1154.140000</v>
+        <v>1154.1400000000001</v>
       </c>
       <c r="D24" s="1">
-        <v>-259.592000</v>
+        <v>-259.59199999999998</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>36576.140799</v>
+        <v>36576.140799000001</v>
       </c>
       <c r="G24" s="1">
-        <v>10.160039</v>
+        <v>10.160038999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>1176.090000</v>
+        <v>1176.0899999999999</v>
       </c>
       <c r="I24" s="1">
-        <v>-217.128000</v>
+        <v>-217.12799999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>36586.329154</v>
+        <v>36586.329153999999</v>
       </c>
       <c r="L24" s="1">
-        <v>10.162869</v>
+        <v>10.162869000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>1203.510000</v>
+        <v>1203.51</v>
       </c>
       <c r="N24" s="1">
-        <v>-151.196000</v>
+        <v>-151.196</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
         <v>36596.586915</v>
       </c>
       <c r="Q24" s="1">
-        <v>10.165719</v>
+        <v>10.165718999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>1211.020000</v>
+        <v>1211.02</v>
       </c>
       <c r="S24" s="1">
-        <v>-128.946000</v>
+        <v>-128.946</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>36606.743959</v>
+        <v>36606.743958999999</v>
       </c>
       <c r="V24" s="1">
-        <v>10.168540</v>
+        <v>10.16854</v>
       </c>
       <c r="W24" s="1">
-        <v>1218.310000</v>
+        <v>1218.31</v>
       </c>
       <c r="X24" s="1">
-        <v>-108.321000</v>
+        <v>-108.321</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>36617.007176</v>
+        <v>36617.007175999999</v>
       </c>
       <c r="AA24" s="1">
         <v>10.171391</v>
       </c>
       <c r="AB24" s="1">
-        <v>1225.720000</v>
+        <v>1225.72</v>
       </c>
       <c r="AC24" s="1">
-        <v>-91.011500</v>
+        <v>-91.011499999999998</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>36627.114688</v>
+        <v>36627.114688000001</v>
       </c>
       <c r="AF24" s="1">
         <v>10.174199</v>
       </c>
       <c r="AG24" s="1">
-        <v>1230.570000</v>
+        <v>1230.57</v>
       </c>
       <c r="AH24" s="1">
-        <v>-86.539200</v>
+        <v>-86.539199999999994</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>36637.356046</v>
+        <v>36637.356046000001</v>
       </c>
       <c r="AK24" s="1">
-        <v>10.177043</v>
+        <v>10.177042999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>1237.580000</v>
+        <v>1237.58</v>
       </c>
       <c r="AM24" s="1">
-        <v>-89.799100</v>
+        <v>-89.799099999999996</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>36648.028997</v>
+        <v>36648.028997000001</v>
       </c>
       <c r="AP24" s="1">
-        <v>10.180008</v>
+        <v>10.180008000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1245.450000</v>
+        <v>1245.45</v>
       </c>
       <c r="AR24" s="1">
-        <v>-101.712000</v>
+        <v>-101.712</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>36659.164678</v>
+        <v>36659.164678000001</v>
       </c>
       <c r="AU24" s="1">
-        <v>10.183101</v>
+        <v>10.183101000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>1255.220000</v>
+        <v>1255.22</v>
       </c>
       <c r="AW24" s="1">
-        <v>-121.198000</v>
+        <v>-121.19799999999999</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>36669.735379</v>
+        <v>36669.735378999998</v>
       </c>
       <c r="AZ24" s="1">
         <v>10.186038</v>
       </c>
       <c r="BA24" s="1">
-        <v>1263.550000</v>
+        <v>1263.55</v>
       </c>
       <c r="BB24" s="1">
-        <v>-138.863000</v>
+        <v>-138.863</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>36680.697958</v>
+        <v>36680.697957999997</v>
       </c>
       <c r="BE24" s="1">
         <v>10.189083</v>
       </c>
       <c r="BF24" s="1">
-        <v>1303.240000</v>
+        <v>1303.24</v>
       </c>
       <c r="BG24" s="1">
-        <v>-222.035000</v>
+        <v>-222.035</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>36691.695750</v>
+        <v>36691.695749999999</v>
       </c>
       <c r="BJ24" s="1">
         <v>10.192138</v>
       </c>
       <c r="BK24" s="1">
-        <v>1372.590000</v>
+        <v>1372.59</v>
       </c>
       <c r="BL24" s="1">
-        <v>-361.060000</v>
+        <v>-361.06</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>36702.345652</v>
+        <v>36702.345652000004</v>
       </c>
       <c r="BO24" s="1">
-        <v>10.195096</v>
+        <v>10.195095999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1487.210000</v>
+        <v>1487.21</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-588.093000</v>
+        <v>-588.09299999999996</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>36713.517737</v>
+        <v>36713.517737000002</v>
       </c>
       <c r="BT24" s="1">
-        <v>10.198199</v>
+        <v>10.198199000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>1619.320000</v>
+        <v>1619.32</v>
       </c>
       <c r="BV24" s="1">
-        <v>-845.252000</v>
+        <v>-845.25199999999995</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>36724.679707</v>
+        <v>36724.679707000003</v>
       </c>
       <c r="BY24" s="1">
-        <v>10.201300</v>
+        <v>10.2013</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1772.660000</v>
+        <v>1772.66</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1124.970000</v>
+        <v>-1124.97</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>36738.173864</v>
+        <v>36738.173863999997</v>
       </c>
       <c r="CD24" s="1">
         <v>10.205048</v>
       </c>
       <c r="CE24" s="1">
-        <v>2193.750000</v>
+        <v>2193.75</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1808.530000</v>
+        <v>-1808.53</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>36566.036828</v>
+        <v>36566.036827999997</v>
       </c>
       <c r="B25" s="1">
         <v>10.157232</v>
       </c>
       <c r="C25" s="1">
-        <v>1154.680000</v>
+        <v>1154.68</v>
       </c>
       <c r="D25" s="1">
-        <v>-259.571000</v>
+        <v>-259.57100000000003</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>36576.519246</v>
+        <v>36576.519246000003</v>
       </c>
       <c r="G25" s="1">
-        <v>10.160144</v>
+        <v>10.160144000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>1175.950000</v>
+        <v>1175.95</v>
       </c>
       <c r="I25" s="1">
-        <v>-217.562000</v>
+        <v>-217.56200000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>36586.713025</v>
+        <v>36586.713024999997</v>
       </c>
       <c r="L25" s="1">
         <v>10.162976</v>
       </c>
       <c r="M25" s="1">
-        <v>1203.070000</v>
+        <v>1203.07</v>
       </c>
       <c r="N25" s="1">
-        <v>-151.258000</v>
+        <v>-151.25800000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>36596.936600</v>
+        <v>36596.936600000001</v>
       </c>
       <c r="Q25" s="1">
         <v>10.165816</v>
       </c>
       <c r="R25" s="1">
-        <v>1211.020000</v>
+        <v>1211.02</v>
       </c>
       <c r="S25" s="1">
-        <v>-129.005000</v>
+        <v>-129.005</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>36607.086197</v>
+        <v>36607.086196999997</v>
       </c>
       <c r="V25" s="1">
         <v>10.168635</v>
       </c>
       <c r="W25" s="1">
-        <v>1218.420000</v>
+        <v>1218.42</v>
       </c>
       <c r="X25" s="1">
-        <v>-108.262000</v>
+        <v>-108.262</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>36617.358841</v>
+        <v>36617.358841000001</v>
       </c>
       <c r="AA25" s="1">
-        <v>10.171489</v>
+        <v>10.171488999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>1225.860000</v>
+        <v>1225.8599999999999</v>
       </c>
       <c r="AC25" s="1">
-        <v>-91.128300</v>
+        <v>-91.128299999999996</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>36627.539264</v>
+        <v>36627.539263999999</v>
       </c>
       <c r="AF25" s="1">
-        <v>10.174316</v>
+        <v>10.174315999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>1230.590000</v>
+        <v>1230.5899999999999</v>
       </c>
       <c r="AH25" s="1">
-        <v>-86.553200</v>
+        <v>-86.553200000000004</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>36637.772218</v>
+        <v>36637.772217999998</v>
       </c>
       <c r="AK25" s="1">
         <v>10.177159</v>
       </c>
       <c r="AL25" s="1">
-        <v>1237.620000</v>
+        <v>1237.6199999999999</v>
       </c>
       <c r="AM25" s="1">
-        <v>-89.801800</v>
+        <v>-89.8018</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>36648.337471</v>
+        <v>36648.337470999999</v>
       </c>
       <c r="AP25" s="1">
         <v>10.180094</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1245.430000</v>
+        <v>1245.43</v>
       </c>
       <c r="AR25" s="1">
-        <v>-101.736000</v>
+        <v>-101.736</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>36659.468688</v>
+        <v>36659.468688000001</v>
       </c>
       <c r="AU25" s="1">
-        <v>10.183186</v>
+        <v>10.183185999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>1255.220000</v>
+        <v>1255.22</v>
       </c>
       <c r="AW25" s="1">
-        <v>-121.206000</v>
+        <v>-121.206</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>36670.094516</v>
+        <v>36670.094515999997</v>
       </c>
       <c r="AZ25" s="1">
         <v>10.186137</v>
       </c>
       <c r="BA25" s="1">
-        <v>1263.560000</v>
+        <v>1263.56</v>
       </c>
       <c r="BB25" s="1">
-        <v>-138.876000</v>
+        <v>-138.876</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>36681.059571</v>
+        <v>36681.059570999998</v>
       </c>
       <c r="BE25" s="1">
         <v>10.189183</v>
       </c>
       <c r="BF25" s="1">
-        <v>1303.240000</v>
+        <v>1303.24</v>
       </c>
       <c r="BG25" s="1">
-        <v>-222.024000</v>
+        <v>-222.024</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>36692.069766</v>
+        <v>36692.069766000001</v>
       </c>
       <c r="BJ25" s="1">
         <v>10.192242</v>
       </c>
       <c r="BK25" s="1">
-        <v>1372.690000</v>
+        <v>1372.69</v>
       </c>
       <c r="BL25" s="1">
-        <v>-361.082000</v>
+        <v>-361.08199999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>36703.163288</v>
+        <v>36703.163288000003</v>
       </c>
       <c r="BO25" s="1">
         <v>10.195323</v>
       </c>
       <c r="BP25" s="1">
-        <v>1487.220000</v>
+        <v>1487.22</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-588.099000</v>
+        <v>-588.09900000000005</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>36713.821316</v>
+        <v>36713.821316000001</v>
       </c>
       <c r="BT25" s="1">
-        <v>10.198284</v>
+        <v>10.198283999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>1619.280000</v>
+        <v>1619.28</v>
       </c>
       <c r="BV25" s="1">
-        <v>-845.248000</v>
+        <v>-845.24800000000005</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>36725.139499</v>
+        <v>36725.139498999997</v>
       </c>
       <c r="BY25" s="1">
         <v>10.201428</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1772.880000</v>
+        <v>1772.88</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1125.040000</v>
+        <v>-1125.04</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
         <v>36738.711529</v>
       </c>
       <c r="CD25" s="1">
-        <v>10.205198</v>
+        <v>10.205197999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>2196.320000</v>
+        <v>2196.3200000000002</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1807.650000</v>
+        <v>-1807.65</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>36566.413260</v>
+        <v>36566.413260000001</v>
       </c>
       <c r="B26" s="1">
         <v>10.157337</v>
       </c>
       <c r="C26" s="1">
-        <v>1154.760000</v>
+        <v>1154.76</v>
       </c>
       <c r="D26" s="1">
-        <v>-259.572000</v>
+        <v>-259.572</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>36576.864463</v>
+        <v>36576.864462999998</v>
       </c>
       <c r="G26" s="1">
-        <v>10.160240</v>
+        <v>10.16024</v>
       </c>
       <c r="H26" s="1">
-        <v>1175.570000</v>
+        <v>1175.57</v>
       </c>
       <c r="I26" s="1">
-        <v>-217.719000</v>
+        <v>-217.71899999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>36587.059730</v>
+        <v>36587.059730000001</v>
       </c>
       <c r="L26" s="1">
         <v>10.163072</v>
       </c>
       <c r="M26" s="1">
-        <v>1203.370000</v>
+        <v>1203.3699999999999</v>
       </c>
       <c r="N26" s="1">
-        <v>-151.565000</v>
+        <v>-151.565</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>36597.288724</v>
+        <v>36597.288723999998</v>
       </c>
       <c r="Q26" s="1">
-        <v>10.165914</v>
+        <v>10.165914000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>1210.990000</v>
+        <v>1210.99</v>
       </c>
       <c r="S26" s="1">
-        <v>-128.949000</v>
+        <v>-128.94900000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>36607.435381</v>
+        <v>36607.435381000003</v>
       </c>
       <c r="V26" s="1">
         <v>10.168732</v>
       </c>
       <c r="W26" s="1">
-        <v>1218.420000</v>
+        <v>1218.42</v>
       </c>
       <c r="X26" s="1">
-        <v>-108.318000</v>
+        <v>-108.318</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>36617.791849</v>
+        <v>36617.791849000001</v>
       </c>
       <c r="AA26" s="1">
         <v>10.171609</v>
       </c>
       <c r="AB26" s="1">
-        <v>1225.830000</v>
+        <v>1225.83</v>
       </c>
       <c r="AC26" s="1">
-        <v>-90.998100</v>
+        <v>-90.998099999999994</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>36627.804588</v>
+        <v>36627.804587999999</v>
       </c>
       <c r="AF26" s="1">
-        <v>10.174390</v>
+        <v>10.174390000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>1230.560000</v>
+        <v>1230.56</v>
       </c>
       <c r="AH26" s="1">
-        <v>-86.504700</v>
+        <v>-86.5047</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>36638.064830</v>
+        <v>36638.064830000003</v>
       </c>
       <c r="AK26" s="1">
-        <v>10.177240</v>
+        <v>10.177239999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>1237.630000</v>
+        <v>1237.6300000000001</v>
       </c>
       <c r="AM26" s="1">
-        <v>-89.786400</v>
+        <v>-89.7864</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>36648.701067</v>
+        <v>36648.701067000002</v>
       </c>
       <c r="AP26" s="1">
-        <v>10.180195</v>
+        <v>10.180194999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1245.440000</v>
+        <v>1245.44</v>
       </c>
       <c r="AR26" s="1">
-        <v>-101.749000</v>
+        <v>-101.749</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>36659.835728</v>
+        <v>36659.835727999998</v>
       </c>
       <c r="AU26" s="1">
-        <v>10.183288</v>
+        <v>10.183287999999999</v>
       </c>
       <c r="AV26" s="1">
-        <v>1255.240000</v>
+        <v>1255.24</v>
       </c>
       <c r="AW26" s="1">
-        <v>-121.233000</v>
+        <v>-121.233</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>36670.450150</v>
+        <v>36670.450149999997</v>
       </c>
       <c r="AZ26" s="1">
-        <v>10.186236</v>
+        <v>10.186235999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1263.570000</v>
+        <v>1263.57</v>
       </c>
       <c r="BB26" s="1">
-        <v>-138.899000</v>
+        <v>-138.899</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>36681.787668</v>
+        <v>36681.787667999997</v>
       </c>
       <c r="BE26" s="1">
         <v>10.189385</v>
       </c>
       <c r="BF26" s="1">
-        <v>1303.260000</v>
+        <v>1303.26</v>
       </c>
       <c r="BG26" s="1">
-        <v>-222.020000</v>
+        <v>-222.02</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>36692.844486</v>
+        <v>36692.844486000002</v>
       </c>
       <c r="BJ26" s="1">
-        <v>10.192457</v>
+        <v>10.192456999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1372.670000</v>
+        <v>1372.67</v>
       </c>
       <c r="BL26" s="1">
-        <v>-361.089000</v>
+        <v>-361.089</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>36703.582906</v>
+        <v>36703.582906000003</v>
       </c>
       <c r="BO26" s="1">
-        <v>10.195440</v>
+        <v>10.19544</v>
       </c>
       <c r="BP26" s="1">
-        <v>1487.280000</v>
+        <v>1487.28</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-588.070000</v>
+        <v>-588.07000000000005</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>36714.236477</v>
+        <v>36714.236476999999</v>
       </c>
       <c r="BT26" s="1">
         <v>10.198399</v>
       </c>
       <c r="BU26" s="1">
-        <v>1619.280000</v>
+        <v>1619.28</v>
       </c>
       <c r="BV26" s="1">
-        <v>-845.147000</v>
+        <v>-845.14700000000005</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>36725.585929</v>
+        <v>36725.585929000001</v>
       </c>
       <c r="BY26" s="1">
         <v>10.201552</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1772.860000</v>
+        <v>1772.86</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1125.180000</v>
+        <v>-1125.18</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>36739.561670</v>
+        <v>36739.561670000003</v>
       </c>
       <c r="CD26" s="1">
         <v>10.205434</v>
       </c>
       <c r="CE26" s="1">
-        <v>2194.240000</v>
+        <v>2194.2399999999998</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1808.600000</v>
+        <v>-1808.6</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>